--- a/data/24-11-2025-systems-export.xlsx
+++ b/data/24-11-2025-systems-export.xlsx
@@ -1,3844 +1,3877 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Systems" state="visible" r:id="rId4"/>
+    <sheet name="Systems" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1269">
   <si>
-    <t>System Name</t>
-  </si>
-  <si>
-    <t>System Type Code</t>
-  </si>
-  <si>
-    <t>System Capacity Name</t>
-  </si>
-  <si>
-    <t>Node Name</t>
-  </si>
-  <si>
-    <t>Is Hub</t>
-  </si>
-  <si>
-    <t>Ip Address</t>
-  </si>
-  <si>
-    <t>Is Ring Based</t>
-  </si>
-  <si>
-    <t>Order In Ring</t>
-  </si>
-  <si>
-    <t>Maan Node Id</t>
-  </si>
-  <si>
-    <t>Node Type Name</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>S No</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>System Category</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Commissioned On</t>
-  </si>
-  <si>
-    <t>Ring Id</t>
-  </si>
-  <si>
-    <t>System Type Id</t>
-  </si>
-  <si>
-    <t>Node Id</t>
-  </si>
-  <si>
-    <t>Maintenance Terminal Id</t>
-  </si>
-  <si>
-    <t>Ring Logical Area Name</t>
-  </si>
-  <si>
-    <t>System Maintenance Terminal Name</t>
-  </si>
-  <si>
-    <t>System Type Name</t>
-  </si>
-  <si>
-    <t>Ring Associations</t>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>System Capacity Id</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA A1</t>
-  </si>
-  <si>
-    <t>CPAN</t>
-  </si>
-  <si>
-    <t>5 Gbps</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA BTS</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>10.123.138.208/32</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Base Transceiver Station</t>
-  </si>
-  <si>
-    <t>22.3768</t>
-  </si>
-  <si>
-    <t>88.4232</t>
-  </si>
-  <si>
-    <t>SYSTEM_TYPES</t>
-  </si>
-  <si>
-    <t>7874595b-5650-477e-8d88-e4cedbe025e2</t>
-  </si>
-  <si>
-    <t>dea33be8-45f3-4823-9366-654f63ba67f2</t>
-  </si>
-  <si>
-    <t>4bc2a086-b131-47e1-9c20-f10650c0196d</t>
-  </si>
-  <si>
-    <t>Harinavi Transmission Maintenance</t>
-  </si>
-  <si>
-    <t>Converged Packet Aggregation Node</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.732688+00:00</t>
-  </si>
-  <si>
-    <t>42f21547-e070-4a94-a13d-d4f158e51fc1</t>
-  </si>
-  <si>
-    <t>0300401d-2969-4703-9bc8-0a1b41f7add3</t>
-  </si>
-  <si>
-    <t>BORAL II</t>
-  </si>
-  <si>
-    <t>BBU</t>
-  </si>
-  <si>
-    <t>4G (Tejas BBU): ~0.6 to 1.3 Gbps</t>
-  </si>
-  <si>
-    <t>BORAL II BTS</t>
-  </si>
-  <si>
-    <t>22.45336</t>
-  </si>
-  <si>
-    <t>88.371332</t>
-  </si>
-  <si>
-    <t>944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
-  </si>
-  <si>
-    <t>6ae392f8-cabe-4121-89a6-5a3ce5905a29</t>
-  </si>
-  <si>
-    <t>Baseband Unit</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.035888+00:00</t>
-  </si>
-  <si>
-    <t>3830d349-f4ce-4391-9796-111cbf942a6f</t>
-  </si>
-  <si>
-    <t>051aa47b-4675-42cc-b7a0-64a76063334c</t>
-  </si>
-  <si>
-    <t>BARUIPUR-3</t>
-  </si>
-  <si>
-    <t>BARUIPUR III BTS</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22.352</t>
-  </si>
-  <si>
-    <t>88.421576</t>
-  </si>
-  <si>
-    <t>a36dd652-8850-4872-93f0-339e8d907754</t>
-  </si>
-  <si>
-    <t>876847d1-9e49-4c81-9716-c3b188826ce1</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.159423+00:00</t>
-  </si>
-  <si>
-    <t>05687289-23bc-4264-b911-566fd95c2c4d</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR BTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>22.4319</t>
-  </si>
-  <si>
-    <t>88.3827</t>
-  </si>
-  <si>
-    <t>c3415dbb-82fc-4c57-bbc7-030774d70494</t>
-  </si>
-  <si>
-    <t>528017c7-b844-4b84-81e4-c9fa425ca540</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.291425+00:00</t>
-  </si>
-  <si>
-    <t>08df952e-7677-4863-92ed-7f1f84bb0966</t>
-  </si>
-  <si>
-    <t>SITAKUNDU B1</t>
-  </si>
-  <si>
-    <t>40 Gbps</t>
-  </si>
-  <si>
-    <t>SITAKUNDU</t>
-  </si>
-  <si>
-    <t>10.123.138.197/32</t>
-  </si>
-  <si>
-    <t>Transmission Nodes</t>
-  </si>
-  <si>
-    <t>22.3607</t>
-  </si>
-  <si>
-    <t>88.4697</t>
-  </si>
-  <si>
-    <t>69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.833453+00:00</t>
-  </si>
-  <si>
-    <t>3beb3ea2-55a4-48da-a7fa-f7c9ccf7de79</t>
-  </si>
-  <si>
-    <t>09b56b00-e0ba-4291-a4b8-ab8dc12dc71d</t>
-  </si>
-  <si>
-    <t>HARINAVI A1</t>
-  </si>
-  <si>
-    <t>HNV PCM 1ST FLOOR</t>
-  </si>
-  <si>
-    <t>10.123.138.233/32</t>
-  </si>
-  <si>
-    <t>22.4157</t>
-  </si>
-  <si>
-    <t>88.416</t>
-  </si>
-  <si>
-    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.928687+00:00</t>
-  </si>
-  <si>
-    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.29.234/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.031951+00:00</t>
-  </si>
-  <si>
-    <t>0b8f17fe-a02b-4d69-b184-d9a40efa4981</t>
-  </si>
-  <si>
-    <t>Sasan_Baruipur</t>
-  </si>
-  <si>
-    <t>SASAN BARUIPUR BTS</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>22.340885</t>
-  </si>
-  <si>
-    <t>88.435243</t>
-  </si>
-  <si>
-    <t>3019cb42-9dca-4eaf-a349-2e4c0fae92e2</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.406568+00:00</t>
-  </si>
-  <si>
-    <t>0ee856f4-f52e-49fa-ad2c-fe0d9d201bec</t>
-  </si>
-  <si>
-    <t>Baruipur Phultala</t>
-  </si>
-  <si>
-    <t>Baruipur Phultala BTS</t>
-  </si>
-  <si>
-    <t>22.348143</t>
-  </si>
-  <si>
-    <t>88.445551</t>
-  </si>
-  <si>
-    <t>6d920c57-cfda-48b3-842c-5598acc0f55c</t>
-  </si>
-  <si>
-    <t>26784392-9af2-47eb-9171-bb0b5d96ee27</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.517766+00:00</t>
-  </si>
-  <si>
-    <t>103ed0b5-55e5-44b0-9f7f-63c72a582088</t>
-  </si>
-  <si>
-    <t>Kamalgachi E.M bypass road</t>
-  </si>
-  <si>
-    <t>kamal gachi E.M bypass road BTS</t>
-  </si>
-  <si>
-    <t>22.460855</t>
-  </si>
-  <si>
-    <t>88.394975</t>
-  </si>
-  <si>
-    <t>4b2a82d4-4500-4c7b-90b0-dda0e9900a10</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.622908+00:00</t>
-  </si>
-  <si>
-    <t>1111fde4-551c-40a1-8f08-e0816df8ee30</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.216/32</t>
-  </si>
-  <si>
-    <t>22.3642</t>
-  </si>
-  <si>
-    <t>88.4306</t>
-  </si>
-  <si>
-    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.163303+00:00</t>
-  </si>
-  <si>
-    <t>1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
-  </si>
-  <si>
-    <t>SONARPUR A4(CAT2) /1</t>
+    <t xml:space="preserve">System Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Type Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Capacity Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ip Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Ring Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order In Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maan Node Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commissioned On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Type Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Terminal Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring Logical Area Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Maintenance Terminal Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring Associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Capacity Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGIBARTALA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGIBARTALA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Transceiver Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSTEM_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7874595b-5650-477e-8d88-e4cedbe025e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dea33be8-45f3-4823-9366-654f63ba67f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bc2a086-b131-47e1-9c20-f10650c0196d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harinavi Transmission Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converged Packet Aggregation Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.732688+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42f21547-e070-4a94-a13d-d4f158e51fc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0300401d-2969-4703-9bc8-0a1b41f7add3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4G (Tejas BBU): ~0.6 to 1.3 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.45336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.371332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ae392f8-cabe-4121-89a6-5a3ce5905a29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseband Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.035888+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3830d349-f4ce-4391-9796-111cbf942a6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">051aa47b-4675-42cc-b7a0-64a76063334c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR III BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.421576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a36dd652-8850-4872-93f0-339e8d907754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876847d1-9e49-4c81-9716-c3b188826ce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.159423+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05687289-23bc-4264-b911-566fd95c2c4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCHANDRAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCHANDRAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3415dbb-82fc-4c57-bbc7-030774d70494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528017c7-b844-4b84-81e4-c9fa425ca540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.291425+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08df952e-7677-4863-92ed-7f1f84bb0966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAKUNDU B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAKUNDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.833453+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3beb3ea2-55a4-48da-a7fa-f7c9ccf7de79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09b56b00-e0ba-4291-a4b8-ab8dc12dc71d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNV PCM 1ST FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45f1a024-b36f-465a-8896-125399380cb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.928687+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09e5014e-8687-43a7-8feb-841dc4f73227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCHANDRAPUR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.031951+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0b8f17fe-a02b-4d69-b184-d9a40efa4981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasan_Baruipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASAN BARUIPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.340885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.435243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3019cb42-9dca-4eaf-a349-2e4c0fae92e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.406568+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ee856f4-f52e-49fa-ad2c-fe0d9d201bec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Phultala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Phultala BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.348143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.445551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d920c57-cfda-48b3-842c-5598acc0f55c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26784392-9af2-47eb-9171-bb0b5d96ee27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.517766+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103ed0b5-55e5-44b0-9f7f-63c72a582088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamalgachi E.M bypass road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamal gachi E.M bypass road BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.460855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.394975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b2a82d4-4500-4c7b-90b0-dda0e9900a10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.622908+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111fde4-551c-40a1-8f08-e0816df8ee30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RAIL CROSSING A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RAIL CROSSING BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25fefca1-ae6f-4e01-8051-087a94373b9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.163303+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR A4(CAT2) /1</t>
   </si>
   <si>
     <t xml:space="preserve">MAAN </t>
   </si>
   <si>
-    <t>25 Gbps</t>
-  </si>
-  <si>
-    <t>SONARPUR</t>
-  </si>
-  <si>
-    <t>10.127.0.76/32</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>KO-KTD-A42-SO-4009</t>
-  </si>
-  <si>
-    <t>Part #-140-SKU000111-P S/N-AA-1024-29-5870</t>
-  </si>
-  <si>
-    <t>22.4385</t>
-  </si>
-  <si>
-    <t>88.4268</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>b4351719-d26e-4b77-81df-8e359bb50504</t>
-  </si>
-  <si>
-    <t>a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
-  </si>
-  <si>
-    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
-  </si>
-  <si>
-    <t>Multi-Access Aggregation Node</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d1fd3f87-3f00-472f-9c09-b27c592fcde3","ring_name":"HNV-19","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":1,"ring_logical_area_name":null},{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":3,"ring_logical_area_name":null},{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":4,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.400801+00:00</t>
-  </si>
-  <si>
-    <t>b63e879c-6b09-402f-8958-a45a023e4339</t>
-  </si>
-  <si>
-    <t>11ff6872-bdac-432f-becf-541a42fdd16a</t>
-  </si>
-  <si>
-    <t>GANGAJORA</t>
-  </si>
-  <si>
-    <t>GANGAJOARA BTS</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>22.4671</t>
-  </si>
-  <si>
-    <t>88.4425</t>
-  </si>
-  <si>
-    <t>d754eb42-3981-4173-9d9d-3d98af98cfdd</t>
-  </si>
-  <si>
-    <t>16db720d-f8b8-43c9-9f07-60a1fed515db</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.726556+00:00</t>
-  </si>
-  <si>
-    <t>13f8ceaa-8ca8-409f-8805-5eb3f017d92a</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR - I I</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR II BTS</t>
-  </si>
-  <si>
-    <t>22.4422</t>
-  </si>
-  <si>
-    <t>88.3951</t>
-  </si>
-  <si>
-    <t>e996fc48-1f78-4ca3-a2ba-ed1f3afa8755</t>
-  </si>
-  <si>
-    <t>e84ef8c2-4788-497a-90cb-7201d08ee88e</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.83034+00:00</t>
-  </si>
-  <si>
-    <t>14dfd4df-eabb-41e7-b0e4-dfd5c3d94f03</t>
-  </si>
-  <si>
-    <t>Uddyan Palli(Rakshit More)</t>
-  </si>
-  <si>
-    <t>BORAL_KALITALA/ Uddayan Palli(Rakshit More)</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>22.449828</t>
-  </si>
-  <si>
-    <t>88.381316</t>
-  </si>
-  <si>
-    <t>44beae27-c244-4de8-8121-7f8995c3ce49</t>
-  </si>
-  <si>
-    <t>cd24aa15-61ce-4b50-8854-8c047c49dc69</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:21.933059+00:00</t>
-  </si>
-  <si>
-    <t>18585a03-c240-46dc-a638-2c8785981748</t>
-  </si>
-  <si>
-    <t>UTTAR KALYANPUR</t>
-  </si>
-  <si>
-    <t>UTTAR KALYANPUR BTS</t>
-  </si>
-  <si>
-    <t>22.363941</t>
-  </si>
-  <si>
-    <t>88.417097</t>
-  </si>
-  <si>
-    <t>17520ee6-a471-47ed-82c1-0590f4c4bad6</t>
-  </si>
-  <si>
-    <t>6200287c-2244-4b89-ba91-932301dbcfd7</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.03828+00:00</t>
-  </si>
-  <si>
-    <t>189db519-2d7c-4dec-934e-50e3116ef8d4</t>
-  </si>
-  <si>
-    <t>SARMASTAPUR</t>
-  </si>
-  <si>
-    <t>SARMASTAPUR BTS</t>
-  </si>
-  <si>
-    <t>22.407</t>
-  </si>
-  <si>
-    <t>88.3997</t>
-  </si>
-  <si>
-    <t>ea5a641a-0f55-40ad-bd7d-085aa2192c05</t>
-  </si>
-  <si>
-    <t>7a797a60-568c-455a-954d-4099c32a438d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.144566+00:00</t>
-  </si>
-  <si>
-    <t>18bb8990-26d2-4b66-a7f4-82f260052276</t>
-  </si>
-  <si>
-    <t>Narendrapur</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR MISSION GATE BTS</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>22.436928</t>
-  </si>
-  <si>
-    <t>88.399236</t>
-  </si>
-  <si>
-    <t>fb724801-3a0a-40fe-9bda-d34a8780a984</t>
-  </si>
-  <si>
-    <t>e0834789-c315-4da7-8e13-13787f88be84</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.252544+00:00</t>
-  </si>
-  <si>
-    <t>19393d8b-f845-4671-befe-3ec81420fb77</t>
-  </si>
-  <si>
-    <t>SUNNY SEASON A1</t>
-  </si>
-  <si>
-    <t>SUNNY SEASON</t>
-  </si>
-  <si>
-    <t>10.123.29.224/32</t>
-  </si>
-  <si>
-    <t>22.444821</t>
-  </si>
-  <si>
-    <t>88.388835</t>
-  </si>
-  <si>
-    <t>0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.269466+00:00</t>
-  </si>
-  <si>
-    <t>1b05cc83-2fb9-4da8-8d4b-1dd775574f12</t>
-  </si>
-  <si>
-    <t>Sitakundu</t>
-  </si>
-  <si>
-    <t>SITAKUNDU BTS</t>
-  </si>
-  <si>
-    <t>ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.353026+00:00</t>
-  </si>
-  <si>
-    <t>1b8ce612-afcd-45b0-8763-38238a5cdf88</t>
-  </si>
-  <si>
-    <t>BORAL</t>
-  </si>
-  <si>
-    <t>22.4497068</t>
-  </si>
-  <si>
-    <t>88.37348573</t>
-  </si>
-  <si>
-    <t>4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.465813+00:00</t>
-  </si>
-  <si>
-    <t>1cf93be5-947f-4d3e-8ba9-4e954cf255ad</t>
-  </si>
-  <si>
-    <t>GANGAJOARA BTS A1</t>
-  </si>
-  <si>
-    <t>10.123.138.248/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.370893+00:00</t>
-  </si>
-  <si>
-    <t>1d220c1a-36f3-40f4-b8b6-05eed82d5694</t>
-  </si>
-  <si>
-    <t>BARUIPUR STATION BAZAR NODE 1</t>
-  </si>
-  <si>
-    <t>Baruipur station Bazar BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.242/32</t>
-  </si>
-  <si>
-    <t>22.36699718</t>
-  </si>
-  <si>
-    <t>88.42761048</t>
-  </si>
-  <si>
-    <t>286ec15e-6eee-488e-9fd8-16b7fb859853</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.480586+00:00</t>
-  </si>
-  <si>
-    <t>21a97b3d-6959-46a5-942e-12a791770da0</t>
-  </si>
-  <si>
-    <t>SUBHAS GRAM BANK PLOT</t>
-  </si>
-  <si>
-    <t>SUBHAS GRAM BANK PLOT BTS</t>
-  </si>
-  <si>
-    <t>22.4193</t>
-  </si>
-  <si>
-    <t>88.4303</t>
-  </si>
-  <si>
-    <t>654e4085-294d-4b04-989f-b51905f33e41</t>
-  </si>
-  <si>
-    <t>b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.568882+00:00</t>
-  </si>
-  <si>
-    <t>2a48bd62-fc52-433a-a8b1-3f8c6f5993a8</t>
-  </si>
-  <si>
-    <t>AP NAGAR ADM16/R-128</t>
-  </si>
-  <si>
-    <t>NGSDH</t>
-  </si>
-  <si>
-    <t>2.488 Gbps</t>
-  </si>
-  <si>
-    <t>AP NAGAR</t>
-  </si>
-  <si>
-    <t>10.119.23.68/32</t>
-  </si>
-  <si>
-    <t>TEJAS</t>
-  </si>
-  <si>
-    <t>22.440491</t>
-  </si>
-  <si>
-    <t>88.439556</t>
-  </si>
-  <si>
-    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
-  </si>
-  <si>
-    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
-  </si>
-  <si>
-    <t>Next Generation SDH</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.715052+00:00</t>
-  </si>
-  <si>
-    <t>7244eee4-00f5-4dd7-b4a0-3cbc37abe2eb</t>
-  </si>
-  <si>
-    <t>2b3b8f7b-a84a-4ef3-b1c6-d6d8aa189785</t>
-  </si>
-  <si>
-    <t>Ramchandrapur II</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR II BTS</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>22.436437</t>
-  </si>
-  <si>
-    <t>88.392069</t>
-  </si>
-  <si>
-    <t>8eda2d42-aebc-4172-a8cb-83546f6ea61c</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.4,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.666539+00:00</t>
-  </si>
-  <si>
-    <t>2fc0f4f2-6533-4bfa-96c9-4a7e14ac970a</t>
-  </si>
-  <si>
-    <t>CHOWHATI POLEHAT</t>
-  </si>
-  <si>
-    <t>CHOWHATI POLEHAT BTS</t>
-  </si>
-  <si>
-    <t>22.416432</t>
-  </si>
-  <si>
-    <t>88.407262</t>
-  </si>
-  <si>
-    <t>e314f7c3-2847-4c0e-9e8c-b61288e4b27d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.840529+00:00</t>
-  </si>
-  <si>
-    <t>309b4281-2b6a-411f-b517-2cf5a1aee051</t>
-  </si>
-  <si>
-    <t>SUBHASHGRAM RAILGATE</t>
-  </si>
-  <si>
-    <t>SUBHAS GRAM RAIL GATE BTS</t>
-  </si>
-  <si>
-    <t>22.409572</t>
-  </si>
-  <si>
-    <t>88.4356</t>
-  </si>
-  <si>
-    <t>eb8587c0-d977-46d7-88d9-149ebb865000</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:22.940577+00:00</t>
-  </si>
-  <si>
-    <t>32e152d8-5df7-4962-ae7b-b61214b8bb98</t>
-  </si>
-  <si>
-    <t>JAGATDAL-2</t>
-  </si>
-  <si>
-    <t>JAGADAL 2 BTS</t>
-  </si>
-  <si>
-    <t>22.4222</t>
-  </si>
-  <si>
-    <t>88.4034</t>
-  </si>
-  <si>
-    <t>44d18876-f86b-4ecb-bdc7-a3905dab4690</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.047566+00:00</t>
-  </si>
-  <si>
-    <t>346a8f71-24f0-455e-986e-6622522d8370</t>
-  </si>
-  <si>
-    <t>BARUIPUR MADARHAT ROAD</t>
-  </si>
-  <si>
-    <t>BARUIPUR MOTHERHUT III BTS</t>
-  </si>
-  <si>
-    <t>22.36481</t>
-  </si>
-  <si>
-    <t>88.43543</t>
-  </si>
-  <si>
-    <t>9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2</t>
-  </si>
-  <si>
-    <t>1db6aeda-5c31-4e1c-9cfe-45376970805f</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.149683+00:00</t>
-  </si>
-  <si>
-    <t>34ef3363-5ecb-4f17-9a9d-b4f6e1516a09</t>
-  </si>
-  <si>
-    <t>SARMASTAPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.210/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.585013+00:00</t>
-  </si>
-  <si>
-    <t>3547d309-bb4e-4686-a04e-5d5844c7b879</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO DATA CENTRE</t>
-  </si>
-  <si>
-    <t>10.123.136.35/32</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>22.35968</t>
-  </si>
-  <si>
-    <t>88.392867</t>
-  </si>
-  <si>
-    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.686966+00:00</t>
-  </si>
-  <si>
-    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
-  </si>
-  <si>
-    <t>Baruipur Kalyanpur</t>
-  </si>
-  <si>
-    <t>Baruipur Kalyanpur  BTS</t>
-  </si>
-  <si>
-    <t>22.34322</t>
-  </si>
-  <si>
-    <t>88.4235</t>
-  </si>
-  <si>
-    <t>df1dcb75-c73c-49e0-8763-d2df4b0a8817</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.249882+00:00</t>
-  </si>
-  <si>
-    <t>37aa828d-c1a6-4a6d-9ba8-a1822095e210</t>
-  </si>
-  <si>
-    <t>SPICE BOARD A1</t>
-  </si>
-  <si>
-    <t>SPICE BOARD BARUIPUR</t>
-  </si>
-  <si>
-    <t>10.123.136.34/32</t>
-  </si>
-  <si>
-    <t>22.3569053</t>
-  </si>
-  <si>
-    <t>88.3883286</t>
-  </si>
-  <si>
-    <t>68a785c4-b190-40d7-8a7e-dbbddc77834f</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.785999+00:00</t>
-  </si>
-  <si>
-    <t>389150a9-94ce-4ae4-b52c-d4d23945ea66</t>
-  </si>
-  <si>
-    <t>KAMALGAZI A1</t>
-  </si>
-  <si>
-    <t>KAMALGAZI BTS</t>
-  </si>
-  <si>
-    <t>10.123.29.230/32</t>
-  </si>
-  <si>
-    <t>22.4502</t>
-  </si>
-  <si>
-    <t>88.3905</t>
-  </si>
-  <si>
-    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:33.912868+00:00</t>
-  </si>
-  <si>
-    <t>38dd3807-d63d-4a53-a295-0649edba88fd</t>
-  </si>
-  <si>
-    <t>SONARPUR ADM16/R-128</t>
-  </si>
-  <si>
-    <t>10.119.23.67/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.823215+00:00</t>
-  </si>
-  <si>
-    <t>3b5ceb14-455f-455f-a59c-b882666ac6b2</t>
-  </si>
-  <si>
-    <t>FARTABAD A1</t>
-  </si>
-  <si>
-    <t>FARTABAD</t>
-  </si>
-  <si>
-    <t>10.123.138.47/32</t>
-  </si>
-  <si>
-    <t>22.461002</t>
-  </si>
-  <si>
-    <t>88.390052</t>
-  </si>
-  <si>
-    <t>10b4b8cd-7f82-4162-a0d5-a37bff9d9049</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.089922+00:00</t>
-  </si>
-  <si>
-    <t>3ddd7dca-b7e7-437f-98d9-bdda0bd1b09d</t>
-  </si>
-  <si>
-    <t>KODALIA A1</t>
-  </si>
-  <si>
-    <t>KODALIA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.204/32</t>
-  </si>
-  <si>
-    <t>22.4096</t>
-  </si>
-  <si>
-    <t>88.4201</t>
-  </si>
-  <si>
-    <t>e56848ea-3c3a-4925-b20c-bc5ca60bec5b</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.191335+00:00</t>
-  </si>
-  <si>
-    <t>3e5f8e29-0b30-46e5-95c8-4c70318c4b3f</t>
-  </si>
-  <si>
-    <t>SONARPUR GHASIARA A1</t>
-  </si>
-  <si>
-    <t>SONARPUR GHASIARA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.218/32</t>
-  </si>
-  <si>
-    <t>22.4323</t>
-  </si>
-  <si>
-    <t>88.4429</t>
-  </si>
-  <si>
-    <t>f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.328093+00:00</t>
-  </si>
-  <si>
-    <t>40385d41-78de-4122-b661-28092515ac86</t>
-  </si>
-  <si>
-    <t>NOTUN PALLY</t>
-  </si>
-  <si>
-    <t>NATUN PALLY BTS</t>
-  </si>
-  <si>
-    <t>22.428</t>
-  </si>
-  <si>
-    <t>88.4358</t>
-  </si>
-  <si>
-    <t>15f65398-ee89-47bc-92e0-5c2fd4eaeb1a</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.351649+00:00</t>
-  </si>
-  <si>
-    <t>41cfd297-1854-494c-ac8a-a569cd9fed4c</t>
-  </si>
-  <si>
-    <t>BARUIPUR III A1</t>
-  </si>
-  <si>
-    <t>10.123.138.211/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.42809+00:00</t>
-  </si>
-  <si>
-    <t>457e890f-197f-4182-934a-5daac05a2b8c</t>
-  </si>
-  <si>
-    <t>KALYANPUR A1</t>
-  </si>
-  <si>
-    <t>KALYANPUR</t>
-  </si>
-  <si>
-    <t>10.123.138.232/32</t>
-  </si>
-  <si>
-    <t>22.342046</t>
-  </si>
-  <si>
-    <t>88.412244</t>
-  </si>
-  <si>
-    <t>aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.526986+00:00</t>
-  </si>
-  <si>
-    <t>45e45063-8612-454d-8469-f002870a22d5</t>
-  </si>
-  <si>
-    <t>SONARPUR II</t>
-  </si>
-  <si>
-    <t>SONARPUR II BTS</t>
-  </si>
-  <si>
-    <t>22.444296</t>
-  </si>
-  <si>
-    <t>88.426474</t>
-  </si>
-  <si>
-    <t>4c8710d0-1503-43b9-b595-fa876c65f61d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.454671+00:00</t>
-  </si>
-  <si>
-    <t>46753173-30a0-4d95-8e21-b4e8bdb5b5ee</t>
-  </si>
-  <si>
-    <t>BARUIPUR EXCH</t>
-  </si>
-  <si>
-    <t>BARUIPUR</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>22.3568</t>
-  </si>
-  <si>
-    <t>88.4345</t>
-  </si>
-  <si>
-    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.555591+00:00</t>
-  </si>
-  <si>
-    <t>4842fed7-9803-478e-91f6-62d9ddfa3589</t>
-  </si>
-  <si>
-    <t>SONARPUR BADAMTALA</t>
-  </si>
-  <si>
-    <t>Sonarpur Badamtala BTS</t>
-  </si>
-  <si>
-    <t>22.449947</t>
-  </si>
-  <si>
-    <t>88.434479</t>
-  </si>
-  <si>
-    <t>04c66bb4-240d-4974-af7f-e94c9d0a379e</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.656834+00:00</t>
-  </si>
-  <si>
-    <t>49a01245-86ed-4bc5-a649-0f70840b41f8</t>
-  </si>
-  <si>
-    <t>MAHINAGAR A1</t>
-  </si>
-  <si>
-    <t>MAHINAGAR BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.205/32</t>
-  </si>
-  <si>
-    <t>22.3912</t>
-  </si>
-  <si>
-    <t>88.4241</t>
-  </si>
-  <si>
-    <t>bea08e9f-79b4-43dd-8515-c57d82c2e1ee</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.626704+00:00</t>
-  </si>
-  <si>
-    <t>4a7e333b-0290-49c7-afd0-347e00239d49</t>
-  </si>
-  <si>
-    <t>KAMALGAZI B2</t>
-  </si>
-  <si>
-    <t>80 Gbps</t>
-  </si>
-  <si>
-    <t>10.123.29.196/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:13:00.120009+00:00</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.727668+00:00</t>
-  </si>
-  <si>
-    <t>8e4dde01-4900-4fa5-a9e5-9b89bfe2663a</t>
-  </si>
-  <si>
-    <t>4b66d440-d94d-4f6e-964c-787d1abd464e</t>
-  </si>
-  <si>
-    <t>KALYANPUR (DAKSHIN)</t>
-  </si>
-  <si>
-    <t>DAKSHIN KALYANPUR BTS</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>22.349258</t>
-  </si>
-  <si>
-    <t>88.400775</t>
-  </si>
-  <si>
-    <t>45b41c2d-54cf-42a9-b134-239d96bb7c5a</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.762666+00:00</t>
-  </si>
-  <si>
-    <t>4b8e7cd5-f855-49ea-9eba-3e77d102f67a</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA BTS</t>
-  </si>
-  <si>
-    <t>22.429</t>
-  </si>
-  <si>
-    <t>88.4172</t>
-  </si>
-  <si>
-    <t>87442c8d-1a10-46d4-ace6-fde25f87f7b8</t>
-  </si>
-  <si>
-    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.866206+00:00</t>
-  </si>
-  <si>
-    <t>4cfa6e83-9a2e-429c-9bf1-ca2968ec9c7a</t>
-  </si>
-  <si>
-    <t>BORAL ADM16/R-131</t>
-  </si>
-  <si>
-    <t>10.119.23.114/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.924354+00:00</t>
-  </si>
-  <si>
-    <t>4ec6ae61-edb9-469d-b526-ed20af944ef5</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR II A1</t>
-  </si>
-  <si>
-    <t>10.123.29.229/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.821609+00:00</t>
-  </si>
-  <si>
-    <t>5507541c-a6c9-4fae-86df-4bca393e4f79</t>
-  </si>
-  <si>
-    <t>Lashkarpur</t>
-  </si>
-  <si>
-    <t>Lashkarpur BTS</t>
-  </si>
-  <si>
-    <t>22.43892</t>
-  </si>
-  <si>
-    <t>88.38611</t>
-  </si>
-  <si>
-    <t>683c709a-096e-4900-a98d-05e20976be7f</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:23.976519+00:00</t>
-  </si>
-  <si>
-    <t>56046e25-03c7-423f-ae52-e57ac870fa8f</t>
-  </si>
-  <si>
-    <t>MALLICKPUR III</t>
-  </si>
-  <si>
-    <t>MULLICKPUR-III BTS</t>
-  </si>
-  <si>
-    <t>22.395038</t>
-  </si>
-  <si>
-    <t>88.43336</t>
-  </si>
-  <si>
-    <t>d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c</t>
-  </si>
-  <si>
-    <t>02e9b630-b2e8-4441-890b-ae42510a7a51</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.086237+00:00</t>
-  </si>
-  <si>
-    <t>57286a9e-8518-4786-9b05-52638f5f42ff</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR BTS A1</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.206/32</t>
-  </si>
-  <si>
-    <t>22.3894</t>
-  </si>
-  <si>
-    <t>88.411</t>
-  </si>
-  <si>
-    <t>3d9eeaab-d37e-404f-aa62-c8c7a75467b5</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:34.918168+00:00</t>
-  </si>
-  <si>
-    <t>57ad4ddf-6492-4990-a0f9-5f615172498a</t>
-  </si>
-  <si>
-    <t>SONARPUR KURIGACHI</t>
-  </si>
-  <si>
-    <t>SONARPUR KURIGACHI BTS</t>
-  </si>
-  <si>
-    <t>22.4598</t>
-  </si>
-  <si>
-    <t>88.4414</t>
-  </si>
-  <si>
-    <t>60cfbcc5-26b9-4d7c-a8e9-02cc56010f19</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.187939+00:00</t>
-  </si>
-  <si>
-    <t>59ed3fb0-2d31-4c61-abf8-63d59706519c</t>
-  </si>
-  <si>
-    <t>SUBHASHGRAM KODALIA</t>
-  </si>
-  <si>
-    <t>SUBHASHGRAM KODALIA BTS</t>
-  </si>
-  <si>
-    <t>22.41313</t>
-  </si>
-  <si>
-    <t>88.424704</t>
-  </si>
-  <si>
-    <t>bf9807b4-3e97-4de5-a8be-d99260d257ae</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.305518+00:00</t>
-  </si>
-  <si>
-    <t>5a87762e-2e2c-48ae-808c-64c6890cb7db</t>
-  </si>
-  <si>
-    <t>BARUIPUR-II</t>
-  </si>
-  <si>
-    <t>BARUIPUR II BTS</t>
-  </si>
-  <si>
-    <t>22.3862</t>
-  </si>
-  <si>
-    <t>88.4307</t>
-  </si>
-  <si>
-    <t>3101bd5e-0fac-4546-8e79-2b18ff0fd35e</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.404202+00:00</t>
-  </si>
-  <si>
-    <t>5fce59b4-9b0f-4741-91e8-d0a623999328</t>
-  </si>
-  <si>
-    <t>BARUIPUR BDO OFFICE NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.224/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.02264+00:00</t>
-  </si>
-  <si>
-    <t>6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
-  </si>
-  <si>
-    <t>BARUIPUR STATION BAZAR</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.513657+00:00</t>
-  </si>
-  <si>
-    <t>62680b1e-92fc-4ba8-8420-d95aad54d6f8</t>
-  </si>
-  <si>
-    <t>MOLLIKPUR SITALA MANDIR</t>
-  </si>
-  <si>
-    <t>MULLICKPUR SITALA MANDIR BTS</t>
-  </si>
-  <si>
-    <t>22.4031</t>
-  </si>
-  <si>
-    <t>88.4249</t>
-  </si>
-  <si>
-    <t>84c55f6c-7590-4ade-89aa-12d6c8ed024a</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.61693+00:00</t>
-  </si>
-  <si>
-    <t>62b51f97-44b6-45af-9376-4a5151584e31</t>
-  </si>
-  <si>
-    <t>KAMALGACHI PEYARA BAGAN</t>
-  </si>
-  <si>
-    <t>KAMALGAZI PEYARABAGAN BTS</t>
-  </si>
-  <si>
-    <t>22.446105</t>
-  </si>
-  <si>
-    <t>88.385412</t>
-  </si>
-  <si>
-    <t>1e437e94-08ee-4e1d-9746-3f8aa136135c</t>
-  </si>
-  <si>
-    <t>92ca1720-9481-4411-a6ce-e9b0859985ac</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.728718+00:00</t>
-  </si>
-  <si>
-    <t>637a354e-3831-4118-809a-3570cdab0b34</t>
-  </si>
-  <si>
-    <t>BARUIPUR NODE 3 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.240/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.120697+00:00</t>
-  </si>
-  <si>
-    <t>63c27efd-4ee5-4503-8865-96f9568c4175</t>
-  </si>
-  <si>
-    <t>SONARPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.221/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.227843+00:00</t>
-  </si>
-  <si>
-    <t>63da7fb8-607d-4c05-9ab1-3590cd15f790</t>
-  </si>
-  <si>
-    <t>BARUIPUR II A1</t>
-  </si>
-  <si>
-    <t>10.123.138.207/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.332098+00:00</t>
-  </si>
-  <si>
-    <t>645687d9-733f-473d-8b43-9a15b23888b5</t>
-  </si>
-  <si>
-    <t>Dakshin Bonhooghly</t>
-  </si>
-  <si>
-    <t>DAKSHIN BONHOOGLY BTS</t>
-  </si>
-  <si>
-    <t>22.43372</t>
-  </si>
-  <si>
-    <t>88.3759</t>
-  </si>
-  <si>
-    <t>d60d5adb-08af-47f6-a7c5-2c1daabed492</t>
-  </si>
-  <si>
-    <t>0237bbb2-4f2f-409d-b7d6-1fda8fdc8578</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.826353+00:00</t>
-  </si>
-  <si>
-    <t>6700ab9c-cbd6-4a5c-9850-9865454fab74</t>
-  </si>
-  <si>
-    <t>JOKA B3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>60 Gbps</t>
-  </si>
-  <si>
-    <t>JOKA RLU</t>
-  </si>
-  <si>
-    <t>10.127.0.68/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-B32-JO-6008</t>
-  </si>
-  <si>
-    <t>22.4467779</t>
-  </si>
-  <si>
-    <t>88.2958551</t>
-  </si>
-  <si>
-    <t>c09b53e5-ef78-4846-b87b-a4bea12924f4</t>
-  </si>
-  <si>
-    <t>e6222b47-7f08-4ff1-8c75-86b6b5b0a648</t>
-  </si>
-  <si>
-    <t>Behala Transmission Maintenance</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.503954+00:00</t>
-  </si>
-  <si>
-    <t>ce06f9b7-02e7-4741-8911-46cf1f47ffdd</t>
-  </si>
-  <si>
-    <t>6792d039-3f75-499f-af49-a831119d0204</t>
-  </si>
-  <si>
-    <t>AP NAGAR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.222/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.434526+00:00</t>
-  </si>
-  <si>
-    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
-  </si>
-  <si>
-    <t>Mahamayapur</t>
-  </si>
-  <si>
-    <t>MAHAMAYAPUR BTS</t>
-  </si>
-  <si>
-    <t>22.4580762</t>
-  </si>
-  <si>
-    <t>88.388265</t>
-  </si>
-  <si>
-    <t>490a7b87-4ee6-43b0-828e-f93e51f8ec49</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:24.924329+00:00</t>
-  </si>
-  <si>
-    <t>6d8723c7-e89f-4eb1-b67a-6faa28a7ec59</t>
-  </si>
-  <si>
-    <t>HARINAVI B2</t>
-  </si>
-  <si>
-    <t>10.123.138.193/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:12:31.006237+00:00</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.532634+00:00</t>
-  </si>
-  <si>
-    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
-  </si>
-  <si>
-    <t>KODALIA</t>
-  </si>
-  <si>
-    <t>d95f0c5e-10b5-4657-a6b2-2b894c6c5b08</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.019638+00:00</t>
-  </si>
-  <si>
-    <t>706dff3d-77d9-43bc-81f5-accec8481a83</t>
-  </si>
-  <si>
-    <t>JAGADDAL II A1</t>
-  </si>
-  <si>
-    <t>10.123.138.252/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.636133+00:00</t>
-  </si>
-  <si>
-    <t>7a87a58e-2ab1-4195-8cea-46efd3da796a</t>
-  </si>
-  <si>
-    <t>Ghoshpara Darir Road</t>
-  </si>
-  <si>
-    <t>GHOSHPADA DARIR ROAD BTS</t>
-  </si>
-  <si>
-    <t>22.416805</t>
-  </si>
-  <si>
-    <t>88.389697</t>
-  </si>
-  <si>
-    <t>a99402f1-c0a5-4753-98e5-f8216975ec94</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.118154+00:00</t>
-  </si>
-  <si>
-    <t>7bba8d71-6424-406f-896d-2f076da5b9a0</t>
-  </si>
-  <si>
-    <t>Bager Khol Natunhat</t>
-  </si>
-  <si>
-    <t>BAGHAR KHOL NATUNHAT BTS</t>
-  </si>
-  <si>
-    <t>22.442307</t>
-  </si>
-  <si>
-    <t>88.37459</t>
-  </si>
-  <si>
-    <t>3bea923a-72ed-4471-9516-9852d2d1d1b7</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.220783+00:00</t>
-  </si>
-  <si>
-    <t>7bc351d5-c260-4984-bb79-7646042efa69</t>
-  </si>
-  <si>
-    <t>POLEGHAT A1</t>
-  </si>
-  <si>
-    <t>Poleghat</t>
-  </si>
-  <si>
-    <t>10.123.138.250/32</t>
-  </si>
-  <si>
-    <t>Gram Panchayat</t>
-  </si>
-  <si>
-    <t>22.41065</t>
-  </si>
-  <si>
-    <t>88.39467</t>
-  </si>
-  <si>
-    <t>77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.734076+00:00</t>
-  </si>
-  <si>
-    <t>7cb3f1cc-8f91-4d74-8ad4-101c4302a580</t>
-  </si>
-  <si>
-    <t>South Gobindapur</t>
-  </si>
-  <si>
-    <t>SOUTH GOBINDAPUR BTS</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>BTS (running over radiolink)</t>
-  </si>
-  <si>
-    <t>22.382</t>
-  </si>
-  <si>
-    <t>88.40193</t>
-  </si>
-  <si>
-    <t>7cfda4ed-503a-4400-97bc-89740b0b020d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3.2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.319725+00:00</t>
-  </si>
-  <si>
-    <t>7dbe65d3-10d6-490c-b64e-fa6793fc3770</t>
-  </si>
-  <si>
-    <t>PRAN BORAL A1</t>
-  </si>
-  <si>
-    <t>PRANA BORAL BTS</t>
-  </si>
-  <si>
-    <t>10.123.29.209/32</t>
-  </si>
-  <si>
-    <t>22.43794</t>
-  </si>
-  <si>
-    <t>88.375121</t>
-  </si>
-  <si>
-    <t>9316bc95-e5b0-4e58-b16f-424662b14ac8</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.835245+00:00</t>
-  </si>
-  <si>
-    <t>7e20a74e-951b-4c6b-a2c1-20b97e320d8f</t>
-  </si>
-  <si>
-    <t>BARUIPUR JAIL A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR CORRECTIONAL HOME</t>
-  </si>
-  <si>
-    <t>10.123.136.22/32</t>
-  </si>
-  <si>
-    <t>22.3611142</t>
-  </si>
-  <si>
-    <t>88.3920703</t>
-  </si>
-  <si>
-    <t>23759160-69e6-4377-9460-f634b644d723</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:35.933052+00:00</t>
-  </si>
-  <si>
-    <t>7e2a3e99-66b6-486d-8456-9be1242d0fc4</t>
-  </si>
-  <si>
-    <t>HARINAVI MNGPAN</t>
-  </si>
-  <si>
-    <t>IPMPLS</t>
-  </si>
-  <si>
-    <t>10.220.7.77/32</t>
-  </si>
-  <si>
-    <t>ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
-  </si>
-  <si>
-    <t>IP / MPLS Backbone</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.292862+00:00</t>
-  </si>
-  <si>
-    <t>7f745a44-8306-46e2-91c1-897b0c85f614</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM BANK PLOT A1</t>
-  </si>
-  <si>
-    <t>10.123.138.219/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.04066+00:00</t>
-  </si>
-  <si>
-    <t>80004a69-35d9-46c7-a3f0-abbf15342767</t>
-  </si>
-  <si>
-    <t>HARINAVI</t>
-  </si>
-  <si>
-    <t>HARINAVI BTS</t>
-  </si>
-  <si>
-    <t>1a8a76fc-fe60-49ee-9ba5-138f4d6410c2</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.425063+00:00</t>
-  </si>
-  <si>
-    <t>8145ef38-6459-4912-b0b6-88e82a4319d0</t>
-  </si>
-  <si>
-    <t>BEHALA B4(CAT1) /1</t>
-  </si>
-  <si>
-    <t>300 Gbps</t>
-  </si>
-  <si>
-    <t>Behala Telephone Exchange</t>
-  </si>
-  <si>
-    <t>10.127.0.13/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-B41-BE-7004</t>
-  </si>
-  <si>
-    <t>22.4926667</t>
-  </si>
-  <si>
-    <t>88.3126029</t>
-  </si>
-  <si>
-    <t>8e78e99f-5b42-40a3-b542-d6682b30392d</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.614291+00:00</t>
-  </si>
-  <si>
-    <t>2efeaec3-25db-4e92-bb1b-0ce370547cd6</t>
-  </si>
-  <si>
-    <t>81809297-b9fa-4baa-93e8-e6327464c94e</t>
-  </si>
-  <si>
-    <t>HARINAVI ADM16/R-128</t>
-  </si>
-  <si>
-    <t>192.170.1.128/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.030539+00:00</t>
-  </si>
-  <si>
-    <t>8418cc68-8607-4fc5-ac10-989af9de67f8</t>
-  </si>
-  <si>
-    <t>10.123.138.229/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.145677+00:00</t>
-  </si>
-  <si>
-    <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
-  </si>
-  <si>
-    <t>SONARPUR SOUTH</t>
-  </si>
-  <si>
-    <t>SONARPUR SOUTH BTS</t>
-  </si>
-  <si>
-    <t>22.4174</t>
-  </si>
-  <si>
-    <t>88.4363</t>
-  </si>
-  <si>
-    <t>53797415-2c34-4f84-a415-404932486c96</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.537133+00:00</t>
-  </si>
-  <si>
-    <t>8703c40b-61bd-4de0-8f31-6aec8dd9a0e5</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKARPARA A1</t>
-  </si>
-  <si>
-    <t>10.123.138.215/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.242333+00:00</t>
-  </si>
-  <si>
-    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
-  </si>
-  <si>
-    <t>Harinavi -B3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>10.127.0.67/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-B32-HN-6007</t>
-  </si>
-  <si>
-    <t>Part #-140-SKU000118-P S/N- AA-0924-29-4546</t>
-  </si>
-  <si>
-    <t>08f32227-efbc-41d8-8171-363bf82b21ad</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":0,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.727259+00:00</t>
-  </si>
-  <si>
-    <t>877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
-  </si>
-  <si>
-    <t>BARUIPUR NODE 4 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.241/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.33977+00:00</t>
-  </si>
-  <si>
-    <t>883e61fd-1d85-4975-887b-ac0c25985d32</t>
-  </si>
-  <si>
-    <t>DAKSHIN CHOWHATI A1</t>
-  </si>
-  <si>
-    <t>DAKSHIN CHOWHATI BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.209/32</t>
-  </si>
-  <si>
-    <t>f62efeda-0828-4bf3-b9c6-076aee551b93</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.433921+00:00</t>
-  </si>
-  <si>
-    <t>88c2ecdb-5f12-4139-8cd3-88b1b032b010</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 6 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.244/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.536511+00:00</t>
-  </si>
-  <si>
-    <t>8b870d28-76e7-4332-9a85-a72ec514b4a5</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR-III</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR-III BTS</t>
-  </si>
-  <si>
-    <t>22.4223</t>
-  </si>
-  <si>
-    <t>88.395</t>
-  </si>
-  <si>
-    <t>e1e3119d-5963-4202-9e63-3537e7ef7ffb</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.642864+00:00</t>
-  </si>
-  <si>
-    <t>8cf37e07-55c5-4a94-823c-a464de5d3de4</t>
-  </si>
-  <si>
-    <t>KAMALGAZI ADM16/R-131</t>
-  </si>
-  <si>
-    <t>10.119.23.113/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.135775+00:00</t>
-  </si>
-  <si>
-    <t>8d1bd9ad-9b59-4ed3-a18b-ed0bb631821d</t>
-  </si>
-  <si>
-    <t>SONARPUR NATUNPALLY</t>
-  </si>
-  <si>
-    <t>SONARPUR NATUNPALLY (GHASIRA SCHOOL) BTS</t>
-  </si>
-  <si>
-    <t>22.4413</t>
-  </si>
-  <si>
-    <t>88.4447</t>
-  </si>
-  <si>
-    <t>cb8918d3-ef72-4754-9c68-876edf4ae1d3</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.749932+00:00</t>
-  </si>
-  <si>
-    <t>90b91775-a852-4850-bb81-8f90b31108e5</t>
-  </si>
-  <si>
-    <t>SUBHASHGRAM PETUA</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM PETUA BTS</t>
-  </si>
-  <si>
-    <t>22.415167</t>
-  </si>
-  <si>
-    <t>88.449306</t>
-  </si>
-  <si>
-    <t>c38d739c-c0b8-40ed-b18f-b58a59647962</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.868328+00:00</t>
-  </si>
-  <si>
-    <t>91a29dcd-a51d-42fe-aff6-ece65e2862b5</t>
-  </si>
-  <si>
-    <t>GARIA MAIN ROAD</t>
-  </si>
-  <si>
-    <t>GARIA MAIN ROAD BTS</t>
-  </si>
-  <si>
-    <t>22.445955</t>
-  </si>
-  <si>
-    <t>88.392374</t>
-  </si>
-  <si>
-    <t>9570839c-ff32-4512-a641-42845be75e83</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:25.967511+00:00</t>
-  </si>
-  <si>
-    <t>94ac5361-cafb-48e6-b5a4-1b979ab400ae</t>
-  </si>
-  <si>
-    <t>BARUIPUR ADM16/R-128</t>
-  </si>
-  <si>
-    <t>10.119.23.65/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.243615+00:00</t>
-  </si>
-  <si>
-    <t>95b6aef5-de3c-4d65-b7e8-c4db52849e59</t>
-  </si>
-  <si>
-    <t>Mahamayatala II</t>
-  </si>
-  <si>
-    <t>MAHAMAYATALA II BTS</t>
-  </si>
-  <si>
-    <t>22.453534</t>
-  </si>
-  <si>
-    <t>88.387656</t>
-  </si>
-  <si>
-    <t>6cb1a150-a017-4e2f-9018-f0482be79bdb</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.066675+00:00</t>
-  </si>
-  <si>
-    <t>95e0f03b-2096-4b81-91cd-2391a8673201</t>
-  </si>
-  <si>
-    <t>BADE HOOGHLY</t>
-  </si>
-  <si>
-    <t>BADE HOOGHLY BTS</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>22.3966</t>
-  </si>
-  <si>
-    <t>88.4119</t>
-  </si>
-  <si>
-    <t>42cd6bb1-697d-4093-82d6-88a7d6e3c87f</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.165473+00:00</t>
-  </si>
-  <si>
-    <t>97ea6130-0cc0-43aa-a5e9-ecb93b783054</t>
-  </si>
-  <si>
-    <t>HINDUSTAN MORE</t>
-  </si>
-  <si>
-    <t>HINDUSTAN MORE BTS</t>
-  </si>
-  <si>
-    <t>22.458516</t>
-  </si>
-  <si>
-    <t>88.383264</t>
-  </si>
-  <si>
-    <t>4c1e57c0-b9fc-4279-9ce9-30f943b905d2</t>
-  </si>
-  <si>
-    <t>e0546d07-677e-475e-b145-1dbfbdeb30f1</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.265534+00:00</t>
-  </si>
-  <si>
-    <t>999bd946-0d06-435a-a5c0-270567d482a2</t>
-  </si>
-  <si>
-    <t>PRANA BORAL</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.369476+00:00</t>
-  </si>
-  <si>
-    <t>9aa151f3-32a6-4c55-abe7-7ea65fa3ce31</t>
-  </si>
-  <si>
-    <t>R K MISSION A1</t>
-  </si>
-  <si>
-    <t>MISSION</t>
-  </si>
-  <si>
-    <t>10.123.138.230/32</t>
-  </si>
-  <si>
-    <t>22.433145</t>
-  </si>
-  <si>
-    <t>88.401453</t>
-  </si>
-  <si>
-    <t>376e5b44-4294-4b61-a411-2df818899fd0</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.646315+00:00</t>
-  </si>
-  <si>
-    <t>9cd28e45-f7dc-4935-8028-c69104d76d17</t>
-  </si>
-  <si>
-    <t>SHERWOOD NODE 2 A1</t>
-  </si>
-  <si>
-    <t>SHERWOOD</t>
-  </si>
-  <si>
-    <t>10.123.138.254/32</t>
-  </si>
-  <si>
-    <t>22.44014856</t>
-  </si>
-  <si>
-    <t>88.39723324</t>
-  </si>
-  <si>
-    <t>859ee42c-40de-4e16-ac9b-084075953311</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.749736+00:00</t>
-  </si>
-  <si>
-    <t>9eb634ec-30bb-4ef0-b58d-e73b9ab3dd26</t>
-  </si>
-  <si>
-    <t>SONARPUR TEGHARIA</t>
-  </si>
-  <si>
-    <t>SONARPUR TEGHARIA BTS</t>
-  </si>
-  <si>
-    <t>22.444199</t>
-  </si>
-  <si>
-    <t>88.415706</t>
-  </si>
-  <si>
-    <t>f8cf599c-f6af-4c1d-947b-a77910f0836d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.475982+00:00</t>
-  </si>
-  <si>
-    <t>9ff5cb52-b691-459a-a32d-2767797d2f99</t>
-  </si>
-  <si>
-    <t>KALYANPUR CHANDIPUR</t>
-  </si>
-  <si>
-    <t>WEST KALYANPUR CHANDIPUR BTS</t>
-  </si>
-  <si>
-    <t>22.34939</t>
-  </si>
-  <si>
-    <t>88.39838</t>
-  </si>
-  <si>
-    <t>ff1282ff-ccbf-43f3-b4f3-345d233bec43</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.576379+00:00</t>
-  </si>
-  <si>
-    <t>a0bc27f3-d75e-4982-824c-433dbfe88aee</t>
-  </si>
-  <si>
-    <t>JADAVPUR B4(CAT2) /1</t>
-  </si>
-  <si>
-    <t>JADAVPUR</t>
-  </si>
-  <si>
-    <t>10.127.0.14/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-B42-JD-8007</t>
-  </si>
-  <si>
-    <t>22.497056</t>
-  </si>
-  <si>
-    <t>88.366333</t>
-  </si>
-  <si>
-    <t>41355205-b6db-4d38-bebf-9f0cf2998f64</t>
-  </si>
-  <si>
-    <t>0334365e-3c7e-4e0f-8547-33a673be10f6</t>
-  </si>
-  <si>
-    <t>Jadavpur Transmission Terminal</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.832432+00:00</t>
-  </si>
-  <si>
-    <t>a27f575b-7267-4355-9b6b-6a4e3ee0bed4</t>
-  </si>
-  <si>
-    <t>10.123.138.238/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.852767+00:00</t>
-  </si>
-  <si>
-    <t>a2c86b2a-34b8-408f-bfe9-10d7278bee18</t>
-  </si>
-  <si>
-    <t>BORAL A1</t>
-  </si>
-  <si>
-    <t>10.123.29.225/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:36.948932+00:00</t>
-  </si>
-  <si>
-    <t>a3f1bd20-41d7-489a-ab31-dc8c3412e0f6</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR KRISHNA A1</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.213/32</t>
-  </si>
-  <si>
-    <t>41e45185-102e-408f-86b0-285c8b2a411f</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.053937+00:00</t>
-  </si>
-  <si>
-    <t>a5c0276a-d7d9-4bcd-aff6-f216b5f38fec</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM (near power GRID) BTS</t>
-  </si>
-  <si>
-    <t>22.405722</t>
-  </si>
-  <si>
-    <t>88.458278</t>
-  </si>
-  <si>
-    <t>857fb335-66a4-4e7d-81aa-f8904e6b9633</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.687627+00:00</t>
-  </si>
-  <si>
-    <t>a7bfb6e6-33c3-460f-8a62-e0b2c9226365</t>
-  </si>
-  <si>
-    <t>SITAKUNDU ADM16/R-128</t>
-  </si>
-  <si>
-    <t>10.119.23.66/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.345533+00:00</t>
-  </si>
-  <si>
-    <t>a7f6ad1a-3f28-4498-92fe-46d8d17aec4c</t>
-  </si>
-  <si>
-    <t>PIYALITOWN II A1</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN II BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.247/32</t>
-  </si>
-  <si>
-    <t>22.3466</t>
-  </si>
-  <si>
-    <t>88.4595</t>
-  </si>
-  <si>
-    <t>5ff68e3d-96c7-41b7-a27e-53823346640a</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.162968+00:00</t>
-  </si>
-  <si>
-    <t>a8611582-e981-4137-95a1-32e6b455e489</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.788541+00:00</t>
-  </si>
-  <si>
-    <t>ab74d1ab-3c8e-4e6a-bf22-cf4d8ee2c270</t>
-  </si>
-  <si>
-    <t>BONHOOGHLY II</t>
-  </si>
-  <si>
-    <t>BONHOOGHLY II BTS</t>
-  </si>
-  <si>
-    <t>22.451835</t>
-  </si>
-  <si>
-    <t>88.3574</t>
-  </si>
-  <si>
-    <t>7dd475ab-8a87-4d25-b9f3-a8c4d22f3ab3</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.895536+00:00</t>
-  </si>
-  <si>
-    <t>ad0f4e69-126d-4aa5-8f15-49dbd58b0899</t>
-  </si>
-  <si>
-    <t>Sonarpur Bazar</t>
-  </si>
-  <si>
-    <t>SONARPUR BAZAR BTS</t>
-  </si>
-  <si>
-    <t>22.442091</t>
-  </si>
-  <si>
-    <t>88.433108</t>
-  </si>
-  <si>
-    <t>6a24ce8a-a80f-41bb-ab94-17159c33db08</t>
-  </si>
-  <si>
-    <t>4b2f4eb6-a531-4e55-ba6d-fffb7cc1257b</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:26.996143+00:00</t>
-  </si>
-  <si>
-    <t>ad580737-fe2a-49d7-bfe5-070dccf7ffc9</t>
-  </si>
-  <si>
-    <t>BARUIPUR DUTTAPARA</t>
-  </si>
-  <si>
-    <t>BARUIPUR DUTTAPARA BTS</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>22.358556</t>
-  </si>
-  <si>
-    <t>88.440806</t>
-  </si>
-  <si>
-    <t>8f06599e-fe3e-4717-b0ea-4fa6ccdb8ea6</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.6,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:27.124941+00:00</t>
-  </si>
-  <si>
-    <t>adece788-5d2b-46d9-be36-7718ec18cf66</t>
-  </si>
-  <si>
-    <t>FIEM A1</t>
-  </si>
-  <si>
-    <t>FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>10.123.138.228/32</t>
-  </si>
-  <si>
-    <t>22.44325019</t>
-  </si>
-  <si>
-    <t>88.41609867</t>
-  </si>
-  <si>
-    <t>8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.260504+00:00</t>
-  </si>
-  <si>
-    <t>adf8c208-c8a2-4ca6-9d62-e315d6ebabc1</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR BTS</t>
-  </si>
-  <si>
-    <t>22.459731</t>
-  </si>
-  <si>
-    <t>88.364807</t>
-  </si>
-  <si>
-    <t>25b76a23-db94-43ae-a7bc-aed8a0a84f2d</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:27.283882+00:00</t>
-  </si>
-  <si>
-    <t>ae97052b-d654-4263-8c36-0bbc79e35ca2</t>
-  </si>
-  <si>
-    <t>BORAL NATUNHAT</t>
-  </si>
-  <si>
-    <t>BORAL NATUNHAT BTS</t>
-  </si>
-  <si>
-    <t>22.44277</t>
-  </si>
-  <si>
-    <t>88.3668</t>
-  </si>
-  <si>
-    <t>6ba14c85-b2bc-4b8c-899b-40b09da2fffb</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:27.412209+00:00</t>
-  </si>
-  <si>
-    <t>aeaa5039-acbc-4937-9ce3-db84570f04b3</t>
-  </si>
-  <si>
-    <t>BARUIPUR (NIRALA ROAD)</t>
-  </si>
-  <si>
-    <t>Baruipur (Nirala Road) BTS</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>22.348053</t>
-  </si>
-  <si>
-    <t>88.445394</t>
-  </si>
-  <si>
-    <t>48f0b92e-bd96-4ae6-bc13-6a94ecc754c5</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.7,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:28.004602+00:00</t>
-  </si>
-  <si>
-    <t>aeac68ee-3ba8-40f4-acc7-e0a119af6b13</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:28.402386+00:00</t>
-  </si>
-  <si>
-    <t>af14cf31-5575-46c2-89dc-2378cbc7f2aa</t>
-  </si>
-  <si>
-    <t>BARUIPUR B3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>10.127.0.81/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-B32-BR-6005</t>
-  </si>
-  <si>
-    <t>Part #-140-SKU000118-P S/N- AA-0924-29-4673</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.932458+00:00</t>
-  </si>
-  <si>
-    <t>b057a5ce-0436-402f-90c6-b30d2f4ef00a</t>
-  </si>
-  <si>
-    <t>Narendrapur BSC</t>
-  </si>
-  <si>
-    <t>Narendrapur Rathtala BTS</t>
-  </si>
-  <si>
-    <t>22.427778</t>
-  </si>
-  <si>
-    <t>88.402225</t>
-  </si>
-  <si>
-    <t>e0207dd8-654c-4f4e-b103-c6def421d81b</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:28.702265+00:00</t>
-  </si>
-  <si>
-    <t>b0827788-de6c-4dd2-8b83-fd7f4740d041</t>
-  </si>
-  <si>
-    <t>Mission Pally</t>
-  </si>
-  <si>
-    <t>MISSION PALLY BTS</t>
-  </si>
-  <si>
-    <t>22.440344</t>
-  </si>
-  <si>
-    <t>88.419627</t>
-  </si>
-  <si>
-    <t>70f7d909-f8b0-4171-a67b-6df6ffc170af</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:28.838241+00:00</t>
-  </si>
-  <si>
-    <t>b14679df-e339-404e-a587-c13eeb4d2d02</t>
-  </si>
-  <si>
-    <t>SREEKHANDA KALVART</t>
-  </si>
-  <si>
-    <t>SREEKHANDA KALVERT BTS</t>
-  </si>
-  <si>
-    <t>22.460079</t>
-  </si>
-  <si>
-    <t>88.423303</t>
-  </si>
-  <si>
-    <t>e96946bc-5db3-44cb-a1a3-22e33ae39c64</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:29.22122+00:00</t>
-  </si>
-  <si>
-    <t>b1838732-4e50-41d8-8793-46722d14e220</t>
-  </si>
-  <si>
-    <t>SONARPUR BTS</t>
-  </si>
-  <si>
-    <t>88.426778</t>
-  </si>
-  <si>
-    <t>d1fd3f87-3f00-472f-9c09-b27c592fcde3</t>
-  </si>
-  <si>
-    <t>d3be4972-e0dd-4dd7-9df6-16a1ed995d5d</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d1fd3f87-3f00-472f-9c09-b27c592fcde3","ring_name":"HNV-19","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:29.631798+00:00</t>
-  </si>
-  <si>
-    <t>b3a4f0ae-ac34-44c4-a9fa-deaf4595e625</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.203/32</t>
-  </si>
-  <si>
-    <t>22.45959189</t>
-  </si>
-  <si>
-    <t>88.36461627</t>
-  </si>
-  <si>
-    <t>6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.354842+00:00</t>
-  </si>
-  <si>
-    <t>b6f14e2b-11a4-46c9-96eb-c41d9564bcb3</t>
-  </si>
-  <si>
-    <t>KHODAR BAZAR</t>
-  </si>
-  <si>
-    <t>KHODAR_BAZAR BTS</t>
-  </si>
-  <si>
-    <t>22.354929</t>
-  </si>
-  <si>
-    <t>88.42696</t>
-  </si>
-  <si>
-    <t>9ce5929c-3cb3-401f-abe5-7bd9e73db778</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:29.902123+00:00</t>
-  </si>
-  <si>
-    <t>b7f9f690-f598-4f2f-9810-4ec0538180ba</t>
-  </si>
-  <si>
-    <t>10.123.138.227/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.456234+00:00</t>
-  </si>
-  <si>
-    <t>b98e3bec-f1a3-4702-a11d-519b1e480f8f</t>
-  </si>
-  <si>
-    <t>MANDALPADA</t>
-  </si>
-  <si>
-    <t>MANDALPADA BTS</t>
-  </si>
-  <si>
-    <t>22.367656</t>
-  </si>
-  <si>
-    <t>88.391778</t>
-  </si>
-  <si>
-    <t>38f528b7-306d-4627-a2bc-775b2e01d01f</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.047929+00:00</t>
-  </si>
-  <si>
-    <t>bacfafe1-1363-45a5-901d-7a6ce371eb70</t>
-  </si>
-  <si>
-    <t>BORAL MAJHERPARA</t>
-  </si>
-  <si>
-    <t>BORAL MAJHERPARA BTS</t>
-  </si>
-  <si>
-    <t>22.449149</t>
-  </si>
-  <si>
-    <t>88.366714</t>
-  </si>
-  <si>
-    <t>09136fb5-6392-44bb-bab4-de1c22a2ac43</t>
-  </si>
-  <si>
-    <t>ceb6e548-ad55-432c-83b2-08774b3fa530</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"09136fb5-6392-44bb-bab4-de1c22a2ac43","ring_name":"HNV-18","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.147046+00:00</t>
-  </si>
-  <si>
-    <t>bb330c9b-0ecf-4f86-bcd4-04c4c113d77a</t>
-  </si>
-  <si>
-    <t>GARIA BOALIA</t>
-  </si>
-  <si>
-    <t>GARIA_BOALIA BTS</t>
-  </si>
-  <si>
-    <t>22.45884</t>
-  </si>
-  <si>
-    <t>88.40603</t>
-  </si>
-  <si>
-    <t>fb43768d-1aa6-4e20-892a-8e153a83350d</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.257953+00:00</t>
-  </si>
-  <si>
-    <t>bb71199b-d9ec-43eb-b3b4-7169add241b7</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.245/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.559512+00:00</t>
-  </si>
-  <si>
-    <t>c15780e5-6039-494d-993d-dced5d450390</t>
-  </si>
-  <si>
-    <t>10.123.138.225/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.66631+00:00</t>
-  </si>
-  <si>
-    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM PANCHGHARA</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM PANCHGHARA BTS</t>
-  </si>
-  <si>
-    <t>22.409033</t>
-  </si>
-  <si>
-    <t>88.442805</t>
-  </si>
-  <si>
-    <t>f7181c00-099b-4239-aeeb-e9f9c1605b12</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.358887+00:00</t>
-  </si>
-  <si>
-    <t>c367e4e9-9f13-40ab-a660-245e732de714</t>
-  </si>
-  <si>
-    <t>GARIA KANDARPUR SAHAPARA</t>
-  </si>
-  <si>
-    <t>GARIA FARTABAD KANDARPUR SAHAPARA BTS</t>
-  </si>
-  <si>
-    <t>22.455184</t>
-  </si>
-  <si>
-    <t>88.399776</t>
-  </si>
-  <si>
-    <t>296383f0-9826-45cf-8934-b5312fedf472</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.462661+00:00</t>
-  </si>
-  <si>
-    <t>c4078cd7-9b21-44c3-ae67-f280d03122cd</t>
-  </si>
-  <si>
-    <t>BARENDRAPARA A1</t>
-  </si>
-  <si>
-    <t>BARENDRA PARA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.249/32</t>
-  </si>
-  <si>
-    <t>22.432409</t>
-  </si>
-  <si>
-    <t>88.418994</t>
-  </si>
-  <si>
-    <t>aeaa6688-ca5f-4a9d-9d72-28ac13063d15</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.792241+00:00</t>
-  </si>
-  <si>
-    <t>c53cb398-c968-4f8f-a6e5-8ea8c33b1c5a</t>
-  </si>
-  <si>
-    <t>HARINAVI  NODE 7 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.253/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:37.901059+00:00</t>
-  </si>
-  <si>
-    <t>c5db764c-f5d3-4c8f-aaa3-05a095ea008f</t>
-  </si>
-  <si>
-    <t>MALANCHA_CHANDPUR</t>
-  </si>
-  <si>
-    <t>MALANCHA_CHANDPUR BTS</t>
-  </si>
-  <si>
-    <t>22.4027</t>
-  </si>
-  <si>
-    <t>88.4124</t>
-  </si>
-  <si>
-    <t>93d9b329-2382-443a-949d-ba8225db474c</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.562807+00:00</t>
-  </si>
-  <si>
-    <t>c7118bd1-0437-49ad-81a1-5ba3c2a844aa</t>
-  </si>
-  <si>
-    <t>A.P NAGAR</t>
-  </si>
-  <si>
-    <t>AP NAGAR BTS</t>
-  </si>
-  <si>
-    <t>22.4407</t>
-  </si>
-  <si>
-    <t>88.4393</t>
-  </si>
-  <si>
-    <t>3de9b5ea-9107-4cf9-82fa-cdc64498c89c</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.668709+00:00</t>
-  </si>
-  <si>
-    <t>c85c46bc-8cb3-44b5-91fe-38edd869302f</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN-2</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.772709+00:00</t>
-  </si>
-  <si>
-    <t>ca1f33ec-f4b7-40bf-9489-f88ad877d980</t>
-  </si>
-  <si>
-    <t>SONARPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.199/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.007218+00:00</t>
-  </si>
-  <si>
-    <t>ce047b30-33c8-425b-b500-5b33e043bf9c</t>
-  </si>
-  <si>
-    <t>HARINAVI ADM16/R-131</t>
-  </si>
-  <si>
-    <t>192.170.1.131/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.45225+00:00</t>
-  </si>
-  <si>
-    <t>ce4a9b80-061f-4a97-94b2-121feba276ef</t>
-  </si>
-  <si>
-    <t>MAHINAGAR</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:30.883238+00:00</t>
-  </si>
-  <si>
-    <t>d4e5ffca-ba06-4b20-9cd6-438763c636c1</t>
-  </si>
-  <si>
-    <t>HHC A1</t>
-  </si>
-  <si>
-    <t>HHC</t>
-  </si>
-  <si>
-    <t>10.123.138.46/32</t>
-  </si>
-  <si>
-    <t>22.4587</t>
-  </si>
-  <si>
-    <t>88.3834</t>
-  </si>
-  <si>
-    <t>781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.108697+00:00</t>
-  </si>
-  <si>
-    <t>d7a4479f-4dd9-4b95-a9f6-00876b3e67ad</t>
-  </si>
-  <si>
-    <t>SHERWOOD A1</t>
-  </si>
-  <si>
-    <t>10.123.138.231/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.206875+00:00</t>
-  </si>
-  <si>
-    <t>d936b53e-7ccb-4319-9e56-8bd072b9b257</t>
-  </si>
-  <si>
-    <t>AP NAGAR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.198/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.309987+00:00</t>
-  </si>
-  <si>
-    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
-  </si>
-  <si>
-    <t>KAMALGAZI A3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>10.127.0.75/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-KM-2020</t>
-  </si>
-  <si>
-    <t>Part #-140-SKU000111-P S/N- AA-0924-29-5108</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":1,"ring_logical_area_name":null},{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.036348+00:00</t>
-  </si>
-  <si>
-    <t>d9fee8ce-68af-4ed2-b5f5-8fea028b1853</t>
-  </si>
-  <si>
-    <t>GARIA A4(CAT1) /1</t>
-  </si>
-  <si>
-    <t>GARIA</t>
-  </si>
-  <si>
-    <t>10.127.0.79/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A41-GA-3002</t>
-  </si>
-  <si>
-    <t>22.467477</t>
-  </si>
-  <si>
-    <t>88.378222</t>
-  </si>
-  <si>
-    <t>09fa1396-5351-4c2b-a049-61e771f054c1</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.151752+00:00</t>
-  </si>
-  <si>
-    <t>da09b4f7-7396-495a-9d6e-a03abe0605eb</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR B2</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR</t>
-  </si>
-  <si>
-    <t>10.123.138.195/32</t>
-  </si>
-  <si>
-    <t>22.390332</t>
-  </si>
-  <si>
-    <t>88.419742</t>
-  </si>
-  <si>
-    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.414555+00:00</t>
-  </si>
-  <si>
-    <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.077325+00:00</t>
-  </si>
-  <si>
-    <t>de8da964-8465-4374-9251-fe05a8b0ed84</t>
-  </si>
-  <si>
-    <t>Baruipur Madarhat II</t>
-  </si>
-  <si>
-    <t>BARUIPUR MOTHERHUT II BTS</t>
-  </si>
-  <si>
-    <t>22.366826</t>
-  </si>
-  <si>
-    <t>88.438255</t>
-  </si>
-  <si>
-    <t>dea39efc-21b8-4bf1-9254-f53c958b6378</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.4,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.183091+00:00</t>
-  </si>
-  <si>
-    <t>df1a8d8a-ba20-4d38-8f44-a126c45b454d</t>
-  </si>
-  <si>
-    <t>FARTABAD BTS</t>
-  </si>
-  <si>
-    <t>22.464461</t>
-  </si>
-  <si>
-    <t>88.387706</t>
-  </si>
-  <si>
-    <t>a591e8fb-a657-4146-866e-5553edf6681a</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.283185+00:00</t>
-  </si>
-  <si>
-    <t>e163b176-b183-409a-b426-5b67f954d227</t>
-  </si>
-  <si>
-    <t>FARTABAD GHOSH PARA</t>
-  </si>
-  <si>
-    <t>FARTABAD GHOSH PARA BTS</t>
-  </si>
-  <si>
-    <t>22.4574</t>
-  </si>
-  <si>
-    <t>88.3954</t>
-  </si>
-  <si>
-    <t>53de6111-6a9e-4106-8244-15138a8c7aad</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.394229+00:00</t>
-  </si>
-  <si>
-    <t>e24cabae-f418-440b-9770-0823b28aed30</t>
-  </si>
-  <si>
-    <t>NATUNPALLY A1</t>
-  </si>
-  <si>
-    <t>10.123.138.237/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.53888+00:00</t>
-  </si>
-  <si>
-    <t>e32f26aa-e927-4850-bf96-ea92299965b5</t>
-  </si>
-  <si>
-    <t>RAJPUR CHANDIBARI</t>
-  </si>
-  <si>
-    <t>RAJPUR Chandi Bari BTS</t>
-  </si>
-  <si>
-    <t>22.42724</t>
-  </si>
-  <si>
-    <t>88.412858</t>
-  </si>
-  <si>
-    <t>b2f50b65-79a6-4ef9-91a9-281253381db0</t>
-  </si>
-  <si>
-    <t>a82a31fd-1a34-4df5-ba67-f51291a81fc4</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.504795+00:00</t>
-  </si>
-  <si>
-    <t>e3a82031-29e8-4313-b0a3-9728404b0882</t>
-  </si>
-  <si>
-    <t>Amtala Rou A3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>Amtala</t>
-  </si>
-  <si>
-    <t>10.127.0.71/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-AM-2023</t>
-  </si>
-  <si>
-    <t>22.369256</t>
-  </si>
-  <si>
-    <t>88.273992</t>
-  </si>
-  <si>
-    <t>45fa1779-4232-476e-beb3-74becf4cbc95</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.275569+00:00</t>
-  </si>
-  <si>
-    <t>e5619dc9-a59c-4046-86d5-9d34c5de70c7</t>
-  </si>
-  <si>
-    <t>FARTABAD ROAD</t>
-  </si>
-  <si>
-    <t>22.463307</t>
-  </si>
-  <si>
-    <t>88.396347</t>
-  </si>
-  <si>
-    <t>6d0564ba-aa3b-4cf9-bbfa-53b264d452f1</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.612326+00:00</t>
-  </si>
-  <si>
-    <t>e7b0eb37-81c9-4d4e-aa42-a729986916f2</t>
-  </si>
-  <si>
-    <t>BARUIPUR BDO OFFICE A1</t>
-  </si>
-  <si>
-    <t>10.123.138.212/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.643499+00:00</t>
-  </si>
-  <si>
-    <t>e901151a-6be4-4c60-83ad-f235d5e661a0</t>
-  </si>
-  <si>
-    <t>MAHINAGAR II</t>
-  </si>
-  <si>
-    <t>MAHINAGAR II BTS</t>
-  </si>
-  <si>
-    <t>f949405f-472a-4a3b-bc79-8b4b18296212</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.713812+00:00</t>
-  </si>
-  <si>
-    <t>e926410c-e258-44f2-96c2-53c66a0ed5a1</t>
-  </si>
-  <si>
-    <t>SONARPUR GHASIARA</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.813379+00:00</t>
-  </si>
-  <si>
-    <t>eb2d1247-a6c1-49a4-a3c5-a2438ec6ea3b</t>
-  </si>
-  <si>
-    <t>Rajpur Nandannagar</t>
-  </si>
-  <si>
-    <t>Rajpur Nandannagar BTS</t>
-  </si>
-  <si>
-    <t>22.42391</t>
-  </si>
-  <si>
-    <t>88.4191</t>
-  </si>
-  <si>
-    <t>f35ad33a-eff2-466d-b759-62c1d36d4905</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:31.912248+00:00</t>
-  </si>
-  <si>
-    <t>ec2e0bde-c011-4c3b-a5c6-39e88a106dc0</t>
-  </si>
-  <si>
-    <t>RANIKUTI A4(CAT2) /1</t>
-  </si>
-  <si>
-    <t>RANIKUTI</t>
-  </si>
-  <si>
-    <t>10.127.0.80/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A42-RK-4001</t>
-  </si>
-  <si>
-    <t>22.48300348</t>
-  </si>
-  <si>
-    <t>88.35414639</t>
-  </si>
-  <si>
-    <t>ee2ea175-88c4-4021-bca9-f7814388d574</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.380318+00:00</t>
-  </si>
-  <si>
-    <t>ec64ac2b-f434-42f8-88f4-251dba27e0e9</t>
-  </si>
-  <si>
-    <t>BARUIPUR MADARHAT</t>
-  </si>
-  <si>
-    <t>BARUIPUR MOTHERHUT I BTS</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>22.364736</t>
-  </si>
-  <si>
-    <t>88.44676</t>
-  </si>
-  <si>
-    <t>6f41170b-1bdb-4007-98a4-a5f7cd1ab418</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.5,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.028478+00:00</t>
-  </si>
-  <si>
-    <t>ed6772d2-b36f-46b8-8dc9-09aaada605be</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL BTS</t>
-  </si>
-  <si>
-    <t>22.4335</t>
-  </si>
-  <si>
-    <t>88.4054</t>
-  </si>
-  <si>
-    <t>b1ba7120-8b78-4897-b040-faa5e5620c96</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.125755+00:00</t>
-  </si>
-  <si>
-    <t>ee62bb41-c220-4d47-b866-d8ab2e00caf0</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL A1</t>
-  </si>
-  <si>
-    <t>10.123.138.214/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.748709+00:00</t>
-  </si>
-  <si>
-    <t>eecca086-c25f-4671-afa5-131b7b9352e3</t>
-  </si>
-  <si>
-    <t>MALLICKPUR II</t>
-  </si>
-  <si>
-    <t>MALLICKPUR-II BTS</t>
-  </si>
-  <si>
-    <t>22.397111</t>
-  </si>
-  <si>
-    <t>88.439389</t>
-  </si>
-  <si>
-    <t>77404e58-8249-4cd1-b031-0bcdfa97b941</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.226486+00:00</t>
-  </si>
-  <si>
-    <t>f0a7f4dd-4c5f-4a0a-b11e-a7460b85c6e6</t>
-  </si>
-  <si>
-    <t>BARUIPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.196/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.870996+00:00</t>
-  </si>
-  <si>
-    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
-  </si>
-  <si>
-    <t>JULPIA A3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>JULPIA</t>
-  </si>
-  <si>
-    <t>10.127.0.73/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-JU-2025</t>
-  </si>
-  <si>
-    <t>22.36603205</t>
-  </si>
-  <si>
-    <t>88.36153672</t>
-  </si>
-  <si>
-    <t>f9ff6e66-4926-4fda-a275-9671f294e925</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.495483+00:00</t>
-  </si>
-  <si>
-    <t>f3e42d50-7a25-45db-bb84-d92ca037eba6</t>
-  </si>
-  <si>
-    <t>MISSION ADM16/R-131</t>
-  </si>
-  <si>
-    <t>10.119.23.112/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:41.552693+00:00</t>
-  </si>
-  <si>
-    <t>f41b9b38-2e8b-426c-b591-0c865830ac4d</t>
-  </si>
-  <si>
-    <t>Narendrapur Station</t>
-  </si>
-  <si>
-    <t>Narendrapur Station BTS</t>
-  </si>
-  <si>
-    <t>22.45388</t>
-  </si>
-  <si>
-    <t>88.41804</t>
-  </si>
-  <si>
-    <t>42c2c9fd-b5bb-408e-a94a-2e1b0b145177</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.326293+00:00</t>
-  </si>
-  <si>
-    <t>f4200d7f-c7cc-46fc-9341-bfcea66fe4a7</t>
-  </si>
-  <si>
-    <t>KAMALGAZI</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.422967+00:00</t>
-  </si>
-  <si>
-    <t>f531e5c1-0228-44c3-a1c6-bc4ba1127bee</t>
-  </si>
-  <si>
-    <t>BARUIPUR STATION BAZAR NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.243/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:38.98061+00:00</t>
-  </si>
-  <si>
-    <t>f551aa93-c82b-4883-b498-c39e8c2bf327</t>
-  </si>
-  <si>
-    <t>BARENDRA PARA</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":2,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.517107+00:00</t>
-  </si>
-  <si>
-    <t>f96417b1-fa0d-4892-9ec5-013448e933ce</t>
-  </si>
-  <si>
-    <t>BARUIPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.220/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.083153+00:00</t>
-  </si>
-  <si>
-    <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
-  </si>
-  <si>
-    <t>10.123.138.217/32</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:39.185964+00:00</t>
-  </si>
-  <si>
-    <t>fa97a97e-ffe1-4921-b13a-0b90e324e2b5</t>
-  </si>
-  <si>
-    <t>BORAL A3(CAT2) /1</t>
-  </si>
-  <si>
-    <t>10.127.0.74/32</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-BO-2026</t>
-  </si>
-  <si>
-    <t>Part #-140-SKU000111-P S/N- AA-0924-29-5112</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"09136fb5-6392-44bb-bab4-de1c22a2ac43","ring_name":"HNV-18","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":0,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:40.609694+00:00</t>
-  </si>
-  <si>
-    <t>fb960b2f-9c6a-4c19-b419-b013aa07b908</t>
-  </si>
-  <si>
-    <t>GOVINDAPUR</t>
-  </si>
-  <si>
-    <t>[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3,"ring_logical_area_name":null}]</t>
-  </si>
-  <si>
-    <t>2025-11-24T16:09:32.635324+00:00</t>
-  </si>
-  <si>
-    <t>fff0aa00-9549-4855-9936-96c96a656483</t>
+    <t xml:space="preserve">25 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A42-SO-4009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P S/N-AA-1024-29-5870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4351719-d26e-4b77-81df-8e359bb50504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Access Aggregation Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d1fd3f87-3f00-472f-9c09-b27c592fcde3","ring_name":"HNV-19","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":1,"ring_logical_area_name":null},{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":3,"ring_logical_area_name":null},{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":4,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.400801+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b63e879c-6b09-402f-8958-a45a023e4339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11ff6872-bdac-432f-becf-541a42fdd16a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANGAJORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANGAJOARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d754eb42-3981-4173-9d9d-3d98af98cfdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16db720d-f8b8-43c9-9f07-60a1fed515db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.726556+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13f8ceaa-8ca8-409f-8805-5eb3f017d92a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR - I I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e996fc48-1f78-4ca3-a2ba-ed1f3afa8755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e84ef8c2-4788-497a-90cb-7201d08ee88e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.83034+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14dfd4df-eabb-41e7-b0e4-dfd5c3d94f03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uddyan Palli(Rakshit More)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL_KALITALA/ Uddayan Palli(Rakshit More)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.449828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.381316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44beae27-c244-4de8-8121-7f8995c3ce49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd24aa15-61ce-4b50-8854-8c047c49dc69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:21.933059+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18585a03-c240-46dc-a638-2c8785981748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTAR KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTAR KALYANPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.363941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.417097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17520ee6-a471-47ed-82c1-0590f4c4bad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200287c-2244-4b89-ba91-932301dbcfd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.03828+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189db519-2d7c-4dec-934e-50e3116ef8d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARMASTAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARMASTAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea5a641a-0f55-40ad-bd7d-085aa2192c05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a797a60-568c-455a-954d-4099c32a438d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.144566+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18bb8990-26d2-4b66-a7f4-82f260052276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narendrapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR MISSION GATE BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.436928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.399236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb724801-3a0a-40fe-9bda-d34a8780a984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0834789-c315-4da7-8e13-13787f88be84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.252544+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19393d8b-f845-4671-befe-3ec81420fb77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNNY SEASON A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNNY SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.444821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.388835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.269466+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b05cc83-2fb9-4da8-8d4b-1dd775574f12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitakundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAKUNDU BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.353026+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b8ce612-afcd-45b0-8763-38238a5cdf88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4497068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.37348573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.465813+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1cf93be5-947f-4d3e-8ba9-4e954cf255ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANGAJOARA BTS A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.370893+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d220c1a-36f3-40f4-b8b6-05eed82d5694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR STATION BAZAR NODE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur station Bazar BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.36699718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.42761048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286ec15e-6eee-488e-9fd8-16b7fb859853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.480586+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21a97b3d-6959-46a5-942e-12a791770da0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHAS GRAM BANK PLOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHAS GRAM BANK PLOT BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">654e4085-294d-4b04-989f-b51905f33e41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.568882+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a48bd62-fc52-433a-a8b1-3f8c6f5993a8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR ADM16/R-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGSDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.488 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.440491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.439556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Generation SDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.715052+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7244eee4-00f5-4dd7-b4a0-3cbc37abe2eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b3b8f7b-a84a-4ef3-b1c6-d6d8aa189785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramchandrapur II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCHANDRAPUR II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.436437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.392069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8eda2d42-aebc-4172-a8cb-83546f6ea61c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.4,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.666539+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fc0f4f2-6533-4bfa-96c9-4a7e14ac970a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOWHATI POLEHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOWHATI POLEHAT BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.416432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.407262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e314f7c3-2847-4c0e-9e8c-b61288e4b27d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.840529+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309b4281-2b6a-411f-b517-2cf5a1aee051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASHGRAM RAILGATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHAS GRAM RAIL GATE BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.409572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb8587c0-d977-46d7-88d9-149ebb865000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:22.940577+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32e152d8-5df7-4962-ae7b-b61214b8bb98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGATDAL-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGADAL 2 BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44d18876-f86b-4ecb-bdc7-a3905dab4690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.047566+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346a8f71-24f0-455e-986e-6622522d8370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MADARHAT ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MOTHERHUT III BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.36481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.43543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1db6aeda-5c31-4e1c-9cfe-45376970805f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.149683+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34ef3363-5ecb-4f17-9a9d-b4f6e1516a09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARMASTAPUR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.585013+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3547d309-bb4e-4686-a04e-5d5844c7b879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DRDO A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DRDO DATA CENTRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.136.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.35968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.392867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51b21244-07e3-4464-ad7b-4ce70805d559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.686966+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3787ddde-544f-4658-97b4-01dcc10217d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Kalyanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Kalyanpur  BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.34322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1dcb75-c73c-49e0-8763-d2df4b0a8817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.249882+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37aa828d-c1a6-4a6d-9ba8-a1822095e210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPICE BOARD A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPICE BOARD BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.136.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3569053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3883286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68a785c4-b190-40d7-8a7e-dbbddc77834f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.785999+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389150a9-94ce-4ae4-b52c-d4d23945ea66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:33.912868+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38dd3807-d63d-4a53-a295-0649edba88fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR ADM16/R-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.823215+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b5ceb14-455f-455f-a59c-b882666ac6b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.461002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.390052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10b4b8cd-7f82-4162-a0d5-a37bff9d9049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.089922+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ddd7dca-b7e7-437f-98d9-bdda0bd1b09d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODALIA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODALIA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e56848ea-3c3a-4925-b20c-bc5ca60bec5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.191335+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e5f8e29-0b30-46e5-95c8-4c70318c4b3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR GHASIARA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR GHASIARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.328093+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40385d41-78de-4122-b661-28092515ac86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTUN PALLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATUN PALLY BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15f65398-ee89-47bc-92e0-5c2fd4eaeb1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.351649+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41cfd297-1854-494c-ac8a-a569cd9fed4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR III A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.42809+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457e890f-197f-4182-934a-5daac05a2b8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.342046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.412244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.526986+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45e45063-8612-454d-8469-f002870a22d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.444296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.426474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c8710d0-1503-43b9-b595-fa876c65f61d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.454671+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46753173-30a0-4d95-8e21-b4e8bdb5b5ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.555591+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4842fed7-9803-478e-91f6-62d9ddfa3589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BADAMTALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonarpur Badamtala BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.449947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.434479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04c66bb4-240d-4974-af7f-e94c9d0a379e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.656834+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49a01245-86ed-4bc5-a649-0f70840b41f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bea08e9f-79b4-43dd-8515-c57d82c2e1ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.626704+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a7e333b-0290-49c7-afd0-347e00239d49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:13:00.120009+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.727668+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e4dde01-4900-4fa5-a9e5-9b89bfe2663a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b66d440-d94d-4f6e-964c-787d1abd464e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR (DAKSHIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN KALYANPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.349258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.400775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45b41c2d-54cf-42a9-b134-239d96bb7c5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.762666+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b8e7cd5-f855-49ea-9eba-3e77d102f67a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR SARKAR PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR SARKAR PARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87442c8d-1a10-46d4-ace6-fde25f87f7b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.866206+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4cfa6e83-9a2e-429c-9bf1-ca2968ec9c7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL ADM16/R-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.924354+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ec6ae61-edb9-469d-b526-ed20af944ef5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR II A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.821609+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5507541c-a6c9-4fae-86df-4bca393e4f79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lashkarpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lashkarpur BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.38611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683c709a-096e-4900-a98d-05e20976be7f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:23.976519+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56046e25-03c7-423f-ae52-e57ac870fa8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLICKPUR III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULLICKPUR-III BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.395038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.43336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02e9b630-b2e8-4441-890b-ae42510a7a51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.086237+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57286a9e-8518-4786-9b05-52638f5f42ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR BTS A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d9eeaab-d37e-404f-aa62-c8c7a75467b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:34.918168+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57ad4ddf-6492-4990-a0f9-5f615172498a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR KURIGACHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR KURIGACHI BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60cfbcc5-26b9-4d7c-a8e9-02cc56010f19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d754eb42-3981-4173-9d9d-3d98af98cfdd","ring_name":"HNV-20","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.187939+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59ed3fb0-2d31-4c61-abf8-63d59706519c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASHGRAM KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASHGRAM KODALIA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.41313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.424704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf9807b4-3e97-4de5-a8be-d99260d257ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.305518+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a87762e-2e2c-48ae-808c-64c6890cb7db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3101bd5e-0fac-4546-8e79-2b18ff0fd35e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.404202+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5fce59b4-9b0f-4741-91e8-d0a623999328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR BDO OFFICE NODE 2 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.02264+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR STATION BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.513657+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62680b1e-92fc-4ba8-8420-d95aad54d6f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLLIKPUR SITALA MANDIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULLICKPUR SITALA MANDIR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84c55f6c-7590-4ade-89aa-12d6c8ed024a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.61693+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62b51f97-44b6-45af-9376-4a5151584e31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGACHI PEYARA BAGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI PEYARABAGAN BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.446105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.385412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e437e94-08ee-4e1d-9746-3f8aa136135c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92ca1720-9481-4411-a6ce-e9b0859985ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.728718+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">637a354e-3831-4118-809a-3570cdab0b34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR NODE 3 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.120697+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63c27efd-4ee5-4503-8865-96f9568c4175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.227843+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63da7fb8-607d-4c05-9ab1-3590cd15f790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR II A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.332098+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645687d9-733f-473d-8b43-9a15b23888b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakshin Bonhooghly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN BONHOOGLY BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d60d5adb-08af-47f6-a7c5-2c1daabed492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0237bbb2-4f2f-409d-b7d6-1fda8fdc8578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.826353+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6700ab9c-cbd6-4a5c-9850-9865454fab74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOKA B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOKA RLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-B32-JO-6008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4467779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.2958551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c09b53e5-ef78-4846-b87b-a4bea12924f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e6222b47-7f08-4ff1-8c75-86b6b5b0a648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behala Transmission Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.503954+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce06f9b7-02e7-4741-8911-46cf1f47ffdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6792d039-3f75-499f-af49-a831119d0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.434526+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahamayapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4580762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.388265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490a7b87-4ee6-43b0-828e-f93e51f8ec49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:24.924329+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d8723c7-e89f-4eb1-b67a-6faa28a7ec59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:12:31.006237+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.532634+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6e5cca5f-9516-4264-811b-309d17a29b6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d95f0c5e-10b5-4657-a6b2-2b894c6c5b08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.019638+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706dff3d-77d9-43bc-81f5-accec8481a83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGADDAL II A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.636133+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a87a58e-2ab1-4195-8cea-46efd3da796a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghoshpara Darir Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHOSHPADA DARIR ROAD BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.416805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.389697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a99402f1-c0a5-4753-98e5-f8216975ec94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.118154+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7bba8d71-6424-406f-896d-2f076da5b9a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bager Khol Natunhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGHAR KHOL NATUNHAT BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.442307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.37459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bea923a-72ed-4471-9516-9852d2d1d1b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.220783+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7bc351d5-c260-4984-bb79-7646042efa69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLEGHAT A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poleghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gram Panchayat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.41065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.39467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.734076+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7cb3f1cc-8f91-4d74-8ad4-101c4302a580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Gobindapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH GOBINDAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS (running over radiolink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.40193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7cfda4ed-503a-4400-97bc-89740b0b020d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3.2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.319725+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dbe65d3-10d6-490c-b64e-fa6793fc3770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAN BORAL A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRANA BORAL BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.375121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316bc95-e5b0-4e58-b16f-424662b14ac8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.835245+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e20a74e-951b-4c6b-a2c1-20b97e320d8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR JAIL A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR CORRECTIONAL HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.136.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3611142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3920703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23759160-69e6-4377-9460-f634b644d723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:35.933052+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e2a3e99-66b6-486d-8456-9be1242d0fc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI MNGPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPMPLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.220.7.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP / MPLS Backbone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.292862+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f745a44-8306-46e2-91c1-897b0c85f614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM BANK PLOT A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.04066+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80004a69-35d9-46c7-a3f0-abbf15342767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a8a76fc-fe60-49ee-9ba5-138f4d6410c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.425063+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8145ef38-6459-4912-b0b6-88e82a4319d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEHALA B4(CAT1) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behala Telephone Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-B41-BE-7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4926667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3126029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e78e99f-5b42-40a3-b542-d6682b30392d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.614291+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2efeaec3-25db-4e92-bb1b-0ce370547cd6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81809297-b9fa-4baa-93e8-e6327464c94e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI ADM16/R-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.170.1.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.030539+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8418cc68-8607-4fc5-ac10-989af9de67f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.145677+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR SOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR SOUTH BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53797415-2c34-4f84-a415-404932486c96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.537133+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8703c40b-61bd-4de0-8f31-6aec8dd9a0e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR SARKARPARA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.242333+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harinavi -B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-B32-HN-6007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000118-P S/N- AA-0924-29-4546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08f32227-efbc-41d8-8171-363bf82b21ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"654e4085-294d-4b04-989f-b51905f33e41","ring_name":"HNV-12","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":0,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.727259+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR NODE 4 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.33977+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883e61fd-1d85-4975-887b-ac0c25985d32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN CHOWHATI A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN CHOWHATI BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f62efeda-0828-4bf3-b9c6-076aee551b93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.433921+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88c2ecdb-5f12-4139-8cd3-88b1b032b010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI NODE 6 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.536511+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8b870d28-76e7-4332-9a85-a72ec514b4a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR-III BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1e3119d-5963-4202-9e63-3537e7ef7ffb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.642864+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cf37e07-55c5-4a94-823c-a464de5d3de4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI ADM16/R-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.135775+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d1bd9ad-9b59-4ed3-a18b-ed0bb631821d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR NATUNPALLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR NATUNPALLY (GHASIRA SCHOOL) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb8918d3-ef72-4754-9c68-876edf4ae1d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.749932+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90b91775-a852-4850-bb81-8f90b31108e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASHGRAM PETUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PETUA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.415167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.449306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c38d739c-c0b8-40ed-b18f-b58a59647962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.868328+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91a29dcd-a51d-42fe-aff6-ece65e2862b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA MAIN ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA MAIN ROAD BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.445955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.392374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9570839c-ff32-4512-a641-42845be75e83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:25.967511+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94ac5361-cafb-48e6-b5a4-1b979ab400ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR ADM16/R-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.243615+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95b6aef5-de3c-4d65-b7e8-c4db52849e59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahamayatala II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYATALA II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.453534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.387656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6cb1a150-a017-4e2f-9018-f0482be79bdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.066675+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95e0f03b-2096-4b81-91cd-2391a8673201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADE HOOGHLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADE HOOGHLY BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42cd6bb1-697d-4093-82d6-88a7d6e3c87f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.165473+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97ea6130-0cc0-43aa-a5e9-ecb93b783054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDUSTAN MORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDUSTAN MORE BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.458516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.383264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c1e57c0-b9fc-4279-9ce9-30f943b905d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0546d07-677e-475e-b145-1dbfbdeb30f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.265534+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999bd946-0d06-435a-a5c0-270567d482a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRANA BORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.369476+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9aa151f3-32a6-4c55-abe7-7ea65fa3ce31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R K MISSION A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.433145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.401453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376e5b44-4294-4b61-a411-2df818899fd0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.646315+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9cd28e45-f7dc-4935-8028-c69104d76d17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHERWOOD NODE 2 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHERWOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.44014856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.39723324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859ee42c-40de-4e16-ac9b-084075953311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.749736+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9eb634ec-30bb-4ef0-b58d-e73b9ab3dd26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR TEGHARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR TEGHARIA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.444199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.415706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8cf599c-f6af-4c1d-947b-a77910f0836d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.475982+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ff5cb52-b691-459a-a32d-2767797d2f99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR CHANDIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST KALYANPUR CHANDIPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.34939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.39838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff1282ff-ccbf-43f3-b4f3-345d233bec43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.576379+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0bc27f3-d75e-4982-824c-433dbfe88aee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADAVPUR B4(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADAVPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-B42-JD-8007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.497056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41355205-b6db-4d38-bebf-9f0cf2998f64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0334365e-3c7e-4e0f-8547-33a673be10f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadavpur Transmission Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.832432+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a27f575b-7267-4355-9b6b-6a4e3ee0bed4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.852767+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2c86b2a-34b8-408f-bfe9-10d7278bee18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.29.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:36.948932+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3f1bd20-41d7-489a-ab31-dc8c3412e0f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR KRISHNA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41e45185-102e-408f-86b0-285c8b2a411f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.053937+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a5c0276a-d7d9-4bcd-aff6-f216b5f38fec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM (near power GRID) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.405722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.458278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">857fb335-66a4-4e7d-81aa-f8904e6b9633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.687627+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7bfb6e6-33c3-460f-8a62-e0b2c9226365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAKUNDU ADM16/R-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.345533+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7f6ad1a-3f28-4498-92fe-46d8d17aec4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALITOWN II A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALI TOWN II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5ff68e3d-96c7-41b7-a27e-53823346640a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.162968+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8611582-e981-4137-95a1-32e6b455e489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGIBARTALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.788541+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab74d1ab-3c8e-4e6a-bf22-cf4d8ee2c270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONHOOGHLY II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONHOOGHLY II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.451835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dd475ab-8a87-4d25-b9f3-a8c4d22f3ab3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.895536+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad0f4e69-126d-4aa5-8f15-49dbd58b0899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonarpur Bazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BAZAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.442091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.433108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a24ce8a-a80f-41bb-ab94-17159c33db08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b2f4eb6-a531-4e55-ba6d-fffb7cc1257b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:26.996143+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad580737-fe2a-49d7-bfe5-070dccf7ffc9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DUTTAPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DUTTAPARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.358556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.440806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f06599e-fe3e-4717-b0ea-4fa6ccdb8ea6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.6,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:27.124941+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adece788-5d2b-46d9-be36-7718ec18cf66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIEM A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.44325019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.41609867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.260504+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adf8c208-c8a2-4ca6-9d62-e315d6ebabc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.459731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.364807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25b76a23-db94-43ae-a7bc-aed8a0a84f2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:27.283882+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ae97052b-d654-4263-8c36-0bbc79e35ca2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL NATUNHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL NATUNHAT BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.44277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ba14c85-b2bc-4b8c-899b-40b09da2fffb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:27.412209+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeaa5039-acbc-4937-9ce3-db84570f04b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR (NIRALA ROAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur (Nirala Road) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.348053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.445394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48f0b92e-bd96-4ae6-bc13-6a94ecc754c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.7,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:28.004602+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeac68ee-3ba8-40f4-acc7-e0a119af6b13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RAIL CROSSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:28.402386+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af14cf31-5575-46c2-89dc-2378cbc7f2aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-B32-BR-6005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000118-P S/N- AA-0924-29-4673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"17520ee6-a471-47ed-82c1-0590f4c4bad6","ring_name":"HNV-03","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"a36dd652-8850-4872-93f0-339e8d907754","ring_name":"HNV-05","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"08f32227-efbc-41d8-8171-363bf82b21ad","ring_name":"HNV-04","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.932458+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b057a5ce-0436-402f-90c6-b30d2f4ef00a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narendrapur BSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narendrapur Rathtala BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.427778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.402225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0207dd8-654c-4f4e-b103-c6def421d81b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:28.702265+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0827788-de6c-4dd2-8b83-fd7f4740d041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Pally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION PALLY BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.440344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.419627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70f7d909-f8b0-4171-a67b-6df6ffc170af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:28.838241+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b14679df-e339-404e-a587-c13eeb4d2d02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREEKHANDA KALVART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREEKHANDA KALVERT BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.460079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.423303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e96946bc-5db3-44cb-a1a3-22e33ae39c64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:29.22122+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1838732-4e50-41d8-8793-46722d14e220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.426778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1fd3f87-3f00-472f-9c09-b27c592fcde3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3be4972-e0dd-4dd7-9df6-16a1ed995d5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d1fd3f87-3f00-472f-9c09-b27c592fcde3","ring_name":"HNV-19","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:29.631798+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3a4f0ae-ac34-44c4-a9fa-deaf4595e625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.45959189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.36461627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.354842+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b6f14e2b-11a4-46c9-96eb-c41d9564bcb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHODAR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHODAR_BAZAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.354929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.42696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ce5929c-3cb3-401f-abe5-7bd9e73db778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:29.902123+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7f9f690-f598-4f2f-9810-4ec0538180ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.456234+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b98e3bec-f1a3-4702-a11d-519b1e480f8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDALPADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDALPADA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.367656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.391778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38f528b7-306d-4627-a2bc-775b2e01d01f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.047929+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bacfafe1-1363-45a5-901d-7a6ce371eb70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL MAJHERPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL MAJHERPARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.449149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.366714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09136fb5-6392-44bb-bab4-de1c22a2ac43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceb6e548-ad55-432c-83b2-08774b3fa530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"09136fb5-6392-44bb-bab4-de1c22a2ac43","ring_name":"HNV-18","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.147046+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb330c9b-0ecf-4f86-bcd4-04c4c113d77a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA BOALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA_BOALIA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.45884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.40603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb43768d-1aa6-4e20-892a-8e153a83350d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.257953+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb71199b-d9ec-43eb-b3b4-7169add241b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI NODE 2 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.559512+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c15780e5-6039-494d-993d-dced5d450390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.66631+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PANCHGHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PANCHGHARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.409033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.442805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7181c00-099b-4239-aeeb-e9f9c1605b12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.358887+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c367e4e9-9f13-40ab-a660-245e732de714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA KANDARPUR SAHAPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA FARTABAD KANDARPUR SAHAPARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.455184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.399776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296383f0-9826-45cf-8934-b5312fedf472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.462661+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4078cd7-9b21-44c3-ae67-f280d03122cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARENDRAPARA A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARENDRA PARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.432409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.418994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeaa6688-ca5f-4a9d-9d72-28ac13063d15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.792241+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c53cb398-c968-4f8f-a6e5-8ea8c33b1c5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI  NODE 7 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:37.901059+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5db764c-f5d3-4c8f-aaa3-05a095ea008f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALANCHA_CHANDPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALANCHA_CHANDPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93d9b329-2382-443a-949d-ba8225db474c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"ea5a641a-0f55-40ad-bd7d-085aa2192c05","ring_name":"HNV-07","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.562807+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c7118bd1-0437-49ad-81a1-5ba3c2a844aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.P NAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3de9b5ea-9107-4cf9-82fa-cdc64498c89c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6a24ce8a-a80f-41bb-ab94-17159c33db08","ring_name":"HNV-14","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.668709+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c85c46bc-8cb3-44b5-91fe-38edd869302f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALI TOWN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"6d920c57-cfda-48b3-842c-5598acc0f55c","ring_name":"HNV-06","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.772709+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca1f33ec-f4b7-40bf-9489-f88ad877d980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.007218+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce047b30-33c8-425b-b500-5b33e043bf9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI ADM16/R-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.170.1.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.45225+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce4a9b80-061f-4a97-94b2-121feba276ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:30.883238+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d4e5ffca-ba06-4b20-9cd6-438763c636c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHC A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.108697+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7a4479f-4dd9-4b95-a9f6-00876b3e67ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHERWOOD A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.206875+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d936b53e-7ccb-4319-9e56-8bd072b9b257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.309987+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A32-KM-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P S/N- AA-0924-29-5108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"1e437e94-08ee-4e1d-9746-3f8aa136135c","ring_name":"HNV-21","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"e996fc48-1f78-4ca3-a2ba-ed1f3afa8755","ring_name":"HNV-15","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"c3415dbb-82fc-4c57-bbc7-030774d70494","ring_name":"HNV-08","order_in_ring":1,"ring_logical_area_name":null},{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.036348+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9fee8ce-68af-4ed2-b5f5-8fea028b1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA A4(CAT1) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A41-GA-3002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.467477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.378222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09fa1396-5351-4c2b-a049-61e771f054c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.151752+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da09b4f7-7396-495a-9d6e-a03abe0605eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.390332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.419742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.414555+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.077325+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de8da964-8465-4374-9251-fe05a8b0ed84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Madarhat II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MOTHERHUT II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.366826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.438255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dea39efc-21b8-4bf1-9254-f53c958b6378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.4,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.183091+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1a8d8a-ba20-4d38-8f44-a126c45b454d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.464461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.387706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a591e8fb-a657-4146-866e-5553edf6681a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"4c1e57c0-b9fc-4279-9ce9-30f943b905d2","ring_name":"HNV-16","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.283185+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e163b176-b183-409a-b426-5b67f954d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD GHOSH PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD GHOSH PARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53de6111-6a9e-4106-8244-15138a8c7aad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.394229+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e24cabae-f418-440b-9770-0823b28aed30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATUNPALLY A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.53888+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e32f26aa-e927-4850-bf96-ea92299965b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR CHANDIBARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR Chandi Bari BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.42724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.412858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2f50b65-79a6-4ef9-91a9-281253381db0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a82a31fd-1a34-4df5-ba67-f51291a81fc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.504795+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3a82031-29e8-4313-b0a3-9728404b0882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amtala Rou A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amtala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A32-AM-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.369256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.273992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45fa1779-4232-476e-beb3-74becf4cbc95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.275569+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5619dc9-a59c-4046-86d5-9d34c5de70c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.463307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d0564ba-aa3b-4cf9-bbfa-53b264d452f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.612326+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e7b0eb37-81c9-4d4e-aa42-a729986916f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR BDO OFFICE A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.643499+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e901151a-6be4-4c60-83ad-f235d5e661a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f949405f-472a-4a3b-bc79-8b4b18296212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d8836bb7-2f9c-484f-89ef-6d5cd6f4f51c","ring_name":"HNV-02","order_in_ring":1.2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.713812+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e926410c-e258-44f2-96c2-53c66a0ed5a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR GHASIARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"b4351719-d26e-4b77-81df-8e359bb50504","ring_name":"HNV-13","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.813379+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb2d1247-a6c1-49a4-a3c5-a2438ec6ea3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajpur Nandannagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajpur Nandannagar BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.42391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f35ad33a-eff2-466d-b759-62c1d36d4905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"b2f50b65-79a6-4ef9-91a9-281253381db0","ring_name":"HNV-17","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:31.912248+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec2e0bde-c011-4c3b-a5c6-39e88a106dc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANIKUTI A4(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANIKUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A42-RK-4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.48300348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.35414639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee2ea175-88c4-4021-bca9-f7814388d574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.380318+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec64ac2b-f434-42f8-88f4-251dba27e0e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MADARHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MOTHERHUT I BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.364736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.44676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6f41170b-1bdb-4007-98a4-a5f7cd1ab418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2","ring_name":"HNV-23","order_in_ring":1.5,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.028478+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed6772d2-b36f-46b8-8dc9-09aaada605be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALIMAR CHEMICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALIMAR CHEMICAL BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1ba7120-8b78-4897-b040-faa5e5620c96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"fb724801-3a0a-40fe-9bda-d34a8780a984","ring_name":"HNV-10","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.125755+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee62bb41-c220-4d47-b866-d8ab2e00caf0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALIMAR CHEMICAL A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.748709+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eecca086-c25f-4671-afa5-131b7b9352e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLICKPUR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLICKPUR-II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.397111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.439389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77404e58-8249-4cd1-b031-0bcdfa97b941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.226486+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f0a7f4dd-4c5f-4a0a-b11e-a7460b85c6e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.870996+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULPIA A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A32-JU-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.36603205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.36153672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9ff6e66-4926-4fda-a275-9671f294e925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.495483+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3e42d50-7a25-45db-bb84-d92ca037eba6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION ADM16/R-131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.119.23.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:41.552693+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f41b9b38-2e8b-426c-b591-0c865830ac4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narendrapur Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narendrapur Station BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.45388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.41804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42c2c9fd-b5bb-408e-a94a-2e1b0b145177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":2.1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.326293+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4200d7f-c7cc-46fc-9341-bfcea66fe4a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"44beae27-c244-4de8-8121-7f8995c3ce49","ring_name":"HNV-22","order_in_ring":1,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.422967+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f531e5c1-0228-44c3-a1c6-bc4ba1127bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR STATION BAZAR NODE 2 A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:38.98061+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f551aa93-c82b-4883-b498-c39e8c2bf327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARENDRA PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"87442c8d-1a10-46d4-ace6-fde25f87f7b8","ring_name":"HNV-11","order_in_ring":2,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.517107+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f96417b1-fa0d-4892-9ec5-013448e933ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.083153+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.123.138.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:39.185964+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa97a97e-ffe1-4921-b13a-0b90e324e2b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.127.0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-KTD-A32-BO-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P S/N- AA-0924-29-5112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"09136fb5-6392-44bb-bab4-de1c22a2ac43","ring_name":"HNV-18","order_in_ring":0,"ring_logical_area_name":null},{"ring_id":"d60d5adb-08af-47f6-a7c5-2c1daabed492","ring_name":"HNV-09","order_in_ring":0,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:40.609694+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb960b2f-9c6a-4c19-b419-b013aa07b908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOVINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"ring_id":"d95f0c5e-10b5-4657-a6b2-2b894c6c5b08","ring_name":"HNV-01","order_in_ring":3,"ring_logical_area_name":null}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-24T16:09:32.635324+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fff0aa00-9549-4855-9936-96c96a656483</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3851,44 +3884,46 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2563EB"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -3896,88 +3931,176 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF8F9FA"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF2563EB"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -3985,318 +4108,174 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="42" sqref="F2 F6:F8 F12:F13 F20 F23:F24 F26 F32:F33 F35:F40 F42:F43 F47:F48 F51:F52 F55 F59 F63:F65 F67:F68 F70 F72 F75 F77:F80 F82:F84 F86:F90 F92 F96 F101:F102 F105:F108 F110:F111 F116 F121 F126 F128 F132:F133 F136:F137 F141:F142 F144:F149 F154 F156 F158 F162 F165 F167:F169 F172 F174:F176 D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="45" customWidth="1"/>
-    <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="22" width="38" customWidth="1"/>
-    <col min="23" max="23" width="24" customWidth="1"/>
-    <col min="24" max="25" width="35" customWidth="1"/>
-    <col min="26" max="26" width="50" customWidth="1"/>
-    <col min="27" max="28" width="34" customWidth="1"/>
-    <col min="29" max="30" width="38" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4462,7 +4441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -4534,7 +4513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -4612,7 +4591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -4690,7 +4669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -4764,7 +4743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -4838,7 +4817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
@@ -4912,7 +4891,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>104</v>
       </c>
@@ -4990,7 +4969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>113</v>
       </c>
@@ -5068,7 +5047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>122</v>
       </c>
@@ -5140,7 +5119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
@@ -5214,7 +5193,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>137</v>
       </c>
@@ -5300,7 +5279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
@@ -5378,7 +5357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>166</v>
       </c>
@@ -5456,7 +5435,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>175</v>
       </c>
@@ -5534,7 +5513,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>185</v>
       </c>
@@ -5612,7 +5591,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>194</v>
       </c>
@@ -5690,7 +5669,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>203</v>
       </c>
@@ -5768,7 +5747,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>213</v>
       </c>
@@ -5842,7 +5821,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>221</v>
       </c>
@@ -5920,7 +5899,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>227</v>
       </c>
@@ -5992,7 +5971,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>233</v>
       </c>
@@ -6066,7 +6045,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>237</v>
       </c>
@@ -6140,7 +6119,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>245</v>
       </c>
@@ -6218,7 +6197,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>254</v>
       </c>
@@ -6294,7 +6273,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>268</v>
       </c>
@@ -6372,7 +6351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>277</v>
       </c>
@@ -6450,7 +6429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>285</v>
       </c>
@@ -6522,7 +6501,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>292</v>
       </c>
@@ -6600,7 +6579,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>300</v>
       </c>
@@ -6678,7 +6657,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>309</v>
       </c>
@@ -6752,7 +6731,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>313</v>
       </c>
@@ -6826,7 +6805,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>322</v>
       </c>
@@ -6904,7 +6883,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>330</v>
       </c>
@@ -6978,7 +6957,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>338</v>
       </c>
@@ -7052,7 +7031,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>346</v>
       </c>
@@ -7128,7 +7107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>350</v>
       </c>
@@ -7202,7 +7181,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>358</v>
       </c>
@@ -7276,7 +7255,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>366</v>
       </c>
@@ -7350,7 +7329,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>374</v>
       </c>
@@ -7428,7 +7407,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>382</v>
       </c>
@@ -7502,7 +7481,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>386</v>
       </c>
@@ -7576,7 +7555,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>394</v>
       </c>
@@ -7654,7 +7633,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>402</v>
       </c>
@@ -7732,7 +7711,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>411</v>
       </c>
@@ -7810,7 +7789,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>419</v>
       </c>
@@ -7884,7 +7863,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>427</v>
       </c>
@@ -7958,7 +7937,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>434</v>
       </c>
@@ -8036,7 +8015,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>443</v>
       </c>
@@ -8114,7 +8093,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>452</v>
       </c>
@@ -8190,7 +8169,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>456</v>
       </c>
@@ -8264,7 +8243,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>460</v>
       </c>
@@ -8342,7 +8321,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>468</v>
       </c>
@@ -8420,7 +8399,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>477</v>
       </c>
@@ -8494,7 +8473,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>485</v>
       </c>
@@ -8572,7 +8551,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>493</v>
       </c>
@@ -8644,7 +8623,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>500</v>
       </c>
@@ -8722,7 +8701,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>508</v>
       </c>
@@ -8796,7 +8775,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>512</v>
       </c>
@@ -8874,7 +8853,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>516</v>
       </c>
@@ -8946,7 +8925,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>523</v>
       </c>
@@ -9024,7 +9003,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>532</v>
       </c>
@@ -9098,7 +9077,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>536</v>
       </c>
@@ -9172,7 +9151,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>540</v>
       </c>
@@ -9246,7 +9225,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>544</v>
       </c>
@@ -9324,7 +9303,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>553</v>
       </c>
@@ -9400,7 +9379,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>566</v>
       </c>
@@ -9474,7 +9453,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>570</v>
       </c>
@@ -9546,7 +9525,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>577</v>
       </c>
@@ -9620,7 +9599,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>582</v>
       </c>
@@ -9698,7 +9677,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>587</v>
       </c>
@@ -9772,7 +9751,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>591</v>
       </c>
@@ -9844,7 +9823,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>598</v>
       </c>
@@ -9922,7 +9901,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>606</v>
       </c>
@@ -9996,7 +9975,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>615</v>
       </c>
@@ -10074,7 +10053,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>625</v>
       </c>
@@ -10148,7 +10127,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>633</v>
       </c>
@@ -10222,7 +10201,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>641</v>
       </c>
@@ -10292,7 +10271,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>648</v>
       </c>
@@ -10366,7 +10345,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>652</v>
       </c>
@@ -10438,7 +10417,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>657</v>
       </c>
@@ -10514,7 +10493,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>668</v>
       </c>
@@ -10590,7 +10569,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -10664,7 +10643,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>675</v>
       </c>
@@ -10736,7 +10715,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>682</v>
       </c>
@@ -10810,7 +10789,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>686</v>
       </c>
@@ -10894,7 +10873,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>694</v>
       </c>
@@ -10968,7 +10947,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>698</v>
       </c>
@@ -11042,7 +11021,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>704</v>
       </c>
@@ -11116,7 +11095,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>708</v>
       </c>
@@ -11188,7 +11167,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>715</v>
       </c>
@@ -11264,7 +11243,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>719</v>
       </c>
@@ -11342,7 +11321,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>727</v>
       </c>
@@ -11414,7 +11393,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>734</v>
       </c>
@@ -11492,7 +11471,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>742</v>
       </c>
@@ -11568,7 +11547,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>746</v>
       </c>
@@ -11646,7 +11625,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>754</v>
       </c>
@@ -11724,7 +11703,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>763</v>
       </c>
@@ -11802,7 +11781,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>772</v>
       </c>
@@ -11880,7 +11859,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>776</v>
       </c>
@@ -11954,7 +11933,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>784</v>
       </c>
@@ -12028,7 +12007,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>792</v>
       </c>
@@ -12106,7 +12085,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>800</v>
       </c>
@@ -12184,7 +12163,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>808</v>
       </c>
@@ -12260,7 +12239,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>92</v>
       </c>
@@ -12334,7 +12313,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>822</v>
       </c>
@@ -12408,7 +12387,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>826</v>
       </c>
@@ -12482,7 +12461,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>832</v>
       </c>
@@ -12554,7 +12533,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>839</v>
       </c>
@@ -12630,7 +12609,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>843</v>
       </c>
@@ -12704,7 +12683,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>851</v>
       </c>
@@ -12782,7 +12761,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>855</v>
       </c>
@@ -12854,7 +12833,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>862</v>
       </c>
@@ -12932,7 +12911,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>871</v>
       </c>
@@ -13010,7 +12989,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>880</v>
       </c>
@@ -13084,7 +13063,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>888</v>
       </c>
@@ -13156,7 +13135,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>895</v>
       </c>
@@ -13228,7 +13207,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>902</v>
       </c>
@@ -13306,7 +13285,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>911</v>
       </c>
@@ -13384,7 +13363,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>915</v>
       </c>
@@ -13468,7 +13447,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>922</v>
       </c>
@@ -13546,7 +13525,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>930</v>
       </c>
@@ -13624,7 +13603,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>938</v>
       </c>
@@ -13702,7 +13681,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>140</v>
       </c>
@@ -13780,7 +13759,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>953</v>
       </c>
@@ -13854,7 +13833,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>960</v>
       </c>
@@ -13932,7 +13911,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>536</v>
       </c>
@@ -14006,7 +13985,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>971</v>
       </c>
@@ -14084,7 +14063,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>979</v>
       </c>
@@ -14162,7 +14141,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>988</v>
       </c>
@@ -14234,7 +14213,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>995</v>
       </c>
@@ -14308,7 +14287,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>92</v>
       </c>
@@ -14382,7 +14361,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>1002</v>
       </c>
@@ -14454,7 +14433,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>1009</v>
       </c>
@@ -14532,7 +14511,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>1017</v>
       </c>
@@ -14606,7 +14585,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>1025</v>
       </c>
@@ -14680,7 +14659,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>1029</v>
       </c>
@@ -14758,7 +14737,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>1037</v>
       </c>
@@ -14836,7 +14815,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>1045</v>
       </c>
@@ -14914,7 +14893,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>1049</v>
       </c>
@@ -14988,7 +14967,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
         <v>1053</v>
       </c>
@@ -15064,7 +15043,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>1057</v>
       </c>
@@ -15142,7 +15121,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
         <v>1061</v>
       </c>
@@ -15216,7 +15195,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>1069</v>
       </c>
@@ -15290,7 +15269,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
         <v>1073</v>
       </c>
@@ -15364,7 +15343,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>1077</v>
       </c>
@@ -15450,7 +15429,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>1084</v>
       </c>
@@ -15528,7 +15507,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>1093</v>
       </c>
@@ -15598,7 +15577,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>1101</v>
       </c>
@@ -15676,7 +15655,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>1105</v>
       </c>
@@ -15754,7 +15733,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
         <v>351</v>
       </c>
@@ -15832,7 +15811,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
         <v>1120</v>
       </c>
@@ -15904,7 +15883,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>1127</v>
       </c>
@@ -15978,7 +15957,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
         <v>1131</v>
       </c>
@@ -16056,7 +16035,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>1140</v>
       </c>
@@ -16132,7 +16111,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>1149</v>
       </c>
@@ -16204,7 +16183,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
         <v>1155</v>
       </c>
@@ -16278,7 +16257,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>1159</v>
       </c>
@@ -16356,7 +16335,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>1165</v>
       </c>
@@ -16434,7 +16413,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
         <v>1169</v>
       </c>
@@ -16512,7 +16491,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
         <v>1177</v>
       </c>
@@ -16588,7 +16567,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
         <v>1186</v>
       </c>
@@ -16666,7 +16645,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
         <v>1195</v>
       </c>
@@ -16744,7 +16723,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>1203</v>
       </c>
@@ -16818,7 +16797,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>1207</v>
       </c>
@@ -16890,7 +16869,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
         <v>1214</v>
       </c>
@@ -16964,7 +16943,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
         <v>1218</v>
       </c>
@@ -17040,7 +17019,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>1227</v>
       </c>
@@ -17116,7 +17095,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>1231</v>
       </c>
@@ -17194,7 +17173,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
         <v>1239</v>
       </c>
@@ -17272,7 +17251,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
         <v>1243</v>
       </c>
@@ -17346,7 +17325,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>1247</v>
       </c>
@@ -17424,7 +17403,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
         <v>1251</v>
       </c>
@@ -17498,7 +17477,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
         <v>92</v>
       </c>
@@ -17572,7 +17551,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
         <v>1258</v>
       </c>
@@ -17656,7 +17635,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
         <v>1265</v>
       </c>
@@ -17735,7 +17714,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>